--- a/data/信息表.xlsx
+++ b/data/信息表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2023\0324asthma registry\asthmaapp0417\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2023\0324asthmaregistry\asthmaapp0417\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7651BA9D-B1F8-41EC-A27C-1777DBE46A8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92DEDC9-59B1-4B5E-A7D8-385E810057F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12855" xr2:uid="{7176CB3D-DF68-4588-9408-3908D2C761DA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$109</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="396">
   <si>
     <t>区域经理</t>
   </si>
@@ -93,9 +93,6 @@
     <t>成都市第一人民医院</t>
   </si>
   <si>
-    <t>新疆自治区</t>
-  </si>
-  <si>
     <t>喀什地区第一人民医院</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>重庆市第五人民医院</t>
   </si>
   <si>
-    <t>黄倩澜</t>
-  </si>
-  <si>
     <t>广东省</t>
   </si>
   <si>
@@ -168,9 +162,6 @@
     <t>南方科技大学医院</t>
   </si>
   <si>
-    <t>广西省</t>
-  </si>
-  <si>
     <t>广西医科大学第一附属医院</t>
   </si>
   <si>
@@ -309,9 +300,6 @@
     <t>北京市大兴区人民医院暨首都医科大学大兴医院</t>
   </si>
   <si>
-    <t>解放军总医院301医院</t>
-  </si>
-  <si>
     <t>首都医科大学附属北京朝阳医院</t>
   </si>
   <si>
@@ -775,6 +763,459 @@
   </si>
   <si>
     <t>冯兴振</t>
+  </si>
+  <si>
+    <t>黄晓林</t>
+  </si>
+  <si>
+    <t>武汉市</t>
+  </si>
+  <si>
+    <t>武昌区</t>
+  </si>
+  <si>
+    <t>荆州市</t>
+  </si>
+  <si>
+    <t>荆州区</t>
+  </si>
+  <si>
+    <t>硚口区</t>
+  </si>
+  <si>
+    <t>十堰市</t>
+  </si>
+  <si>
+    <t>襄阳市</t>
+  </si>
+  <si>
+    <t>蘘城区</t>
+  </si>
+  <si>
+    <t>沙市区</t>
+  </si>
+  <si>
+    <t>宜宾市</t>
+  </si>
+  <si>
+    <t>翠屏区</t>
+  </si>
+  <si>
+    <t>乐山市</t>
+  </si>
+  <si>
+    <t>市中区</t>
+  </si>
+  <si>
+    <t>攀枝花市</t>
+  </si>
+  <si>
+    <t>东区</t>
+  </si>
+  <si>
+    <t>成都市</t>
+  </si>
+  <si>
+    <t>高新南区</t>
+  </si>
+  <si>
+    <t>新疆维吾尔自治区</t>
+  </si>
+  <si>
+    <t>喀什市</t>
+  </si>
+  <si>
+    <t>乌鲁木齐市</t>
+  </si>
+  <si>
+    <t>喀什区</t>
+  </si>
+  <si>
+    <t>渝中区</t>
+  </si>
+  <si>
+    <t>江津区</t>
+  </si>
+  <si>
+    <t>涪陵区</t>
+  </si>
+  <si>
+    <t>渝北区</t>
+  </si>
+  <si>
+    <t>南岸区</t>
+  </si>
+  <si>
+    <t>佛山市</t>
+  </si>
+  <si>
+    <t>禅城区</t>
+  </si>
+  <si>
+    <t>广州市</t>
+  </si>
+  <si>
+    <t>越秀区</t>
+  </si>
+  <si>
+    <t>湛江市</t>
+  </si>
+  <si>
+    <t>霞山区</t>
+  </si>
+  <si>
+    <t>番禺区</t>
+  </si>
+  <si>
+    <t>黄浦区</t>
+  </si>
+  <si>
+    <t>茂名市</t>
+  </si>
+  <si>
+    <t>广西壮族自治区</t>
+  </si>
+  <si>
+    <t>南宁市</t>
+  </si>
+  <si>
+    <t>青秀区</t>
+  </si>
+  <si>
+    <t>毕节市</t>
+  </si>
+  <si>
+    <t>贵阳市</t>
+  </si>
+  <si>
+    <t>南明区</t>
+  </si>
+  <si>
+    <t>延中社区</t>
+  </si>
+  <si>
+    <t>遵义市</t>
+  </si>
+  <si>
+    <t>汇川区</t>
+  </si>
+  <si>
+    <t>昆明市</t>
+  </si>
+  <si>
+    <t>五华区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">郑州市 </t>
+  </si>
+  <si>
+    <t>二七区</t>
+  </si>
+  <si>
+    <t>郑州市</t>
+  </si>
+  <si>
+    <t>金水区</t>
+  </si>
+  <si>
+    <t>聊城市</t>
+  </si>
+  <si>
+    <t>怀化市</t>
+  </si>
+  <si>
+    <t>鹤城区</t>
+  </si>
+  <si>
+    <t>湘潭市</t>
+  </si>
+  <si>
+    <t>雨湖区</t>
+  </si>
+  <si>
+    <t>株洲市</t>
+  </si>
+  <si>
+    <t>芦淞区</t>
+  </si>
+  <si>
+    <t>长沙市</t>
+  </si>
+  <si>
+    <t>雨花区</t>
+  </si>
+  <si>
+    <t>衡阳市</t>
+  </si>
+  <si>
+    <t>蒸湘区</t>
+  </si>
+  <si>
+    <t>长春市</t>
+  </si>
+  <si>
+    <t>南关区</t>
+  </si>
+  <si>
+    <t>沈阳市</t>
+  </si>
+  <si>
+    <t>和平区</t>
+  </si>
+  <si>
+    <t>抚顺市</t>
+  </si>
+  <si>
+    <t>大连市</t>
+  </si>
+  <si>
+    <t>沙河口区</t>
+  </si>
+  <si>
+    <t>本溪市</t>
+  </si>
+  <si>
+    <t>明山区</t>
+  </si>
+  <si>
+    <t>呼伦贝尔市</t>
+  </si>
+  <si>
+    <t>赛罕区</t>
+  </si>
+  <si>
+    <t>烟台市</t>
+  </si>
+  <si>
+    <t>青岛市</t>
+  </si>
+  <si>
+    <t>南区</t>
+  </si>
+  <si>
+    <t>潍坊市</t>
+  </si>
+  <si>
+    <t>日照市</t>
+  </si>
+  <si>
+    <t>张家界市</t>
+  </si>
+  <si>
+    <t>永定区</t>
+  </si>
+  <si>
+    <t>荔湾区</t>
+  </si>
+  <si>
+    <t>昌平区</t>
+  </si>
+  <si>
+    <t>朝阳区</t>
+  </si>
+  <si>
+    <t>南昌市</t>
+  </si>
+  <si>
+    <t>东湖区</t>
+  </si>
+  <si>
+    <t>宜春市</t>
+  </si>
+  <si>
+    <t>杨浦区</t>
+  </si>
+  <si>
+    <t>虹口区</t>
+  </si>
+  <si>
+    <t>徐汇区</t>
+  </si>
+  <si>
+    <t>普陀区</t>
+  </si>
+  <si>
+    <t>义乌市</t>
+  </si>
+  <si>
+    <t>杭州市</t>
+  </si>
+  <si>
+    <t>滨江区</t>
+  </si>
+  <si>
+    <t>金华市</t>
+  </si>
+  <si>
+    <t>上城区</t>
+  </si>
+  <si>
+    <t>余杭区</t>
+  </si>
+  <si>
+    <t>惠州市</t>
+  </si>
+  <si>
+    <t>惠城区</t>
+  </si>
+  <si>
+    <t>东莞市</t>
+  </si>
+  <si>
+    <t>石龙镇</t>
+  </si>
+  <si>
+    <t>深圳市</t>
+  </si>
+  <si>
+    <t>龙岗区</t>
+  </si>
+  <si>
+    <t>石家庄市</t>
+  </si>
+  <si>
+    <t>新华区</t>
+  </si>
+  <si>
+    <t>桥西区</t>
+  </si>
+  <si>
+    <t>齐齐哈尔市</t>
+  </si>
+  <si>
+    <t>铁锋区</t>
+  </si>
+  <si>
+    <t>哈尔滨市</t>
+  </si>
+  <si>
+    <t>太原市</t>
+  </si>
+  <si>
+    <t>中心所在省</t>
+  </si>
+  <si>
+    <t>中心所在市</t>
+  </si>
+  <si>
+    <t>中心所在区</t>
+  </si>
+  <si>
+    <t>沈河区</t>
+  </si>
+  <si>
+    <t>解放军总医院</t>
+  </si>
+  <si>
+    <t>华中科大同济医院</t>
+  </si>
+  <si>
+    <t>宜宾市第二人民医院</t>
+  </si>
+  <si>
+    <t>喀什第一人民医院</t>
+  </si>
+  <si>
+    <t>新疆人民医院</t>
+  </si>
+  <si>
+    <t>喀什第二人民医院</t>
+  </si>
+  <si>
+    <t>重医大附属第三医院</t>
+  </si>
+  <si>
+    <t>广东医科大学附属医院</t>
+  </si>
+  <si>
+    <t>广州医附属第二医院</t>
+  </si>
+  <si>
+    <t>广州医附属第三医院</t>
+  </si>
+  <si>
+    <t>中大附属第三医院</t>
+  </si>
+  <si>
+    <t>广西医第一附属医院</t>
+  </si>
+  <si>
+    <t>毕节市第一人民医院</t>
+  </si>
+  <si>
+    <t>贵州医附属医院</t>
+  </si>
+  <si>
+    <t>遵义医附属医院</t>
+  </si>
+  <si>
+    <t>昆明医第一附属医院</t>
+  </si>
+  <si>
+    <t>郑大第一附属医院</t>
+  </si>
+  <si>
+    <t>河南中医药大学附一院</t>
+  </si>
+  <si>
+    <t>湖南医药学院附一院</t>
+  </si>
+  <si>
+    <t>湖南省直中医医院</t>
+  </si>
+  <si>
+    <t>盛京医院沈阳雍森医院</t>
+  </si>
+  <si>
+    <t>广州医附属第一医院</t>
+  </si>
+  <si>
+    <t>首都医大兴医院</t>
+  </si>
+  <si>
+    <t>首都医附属北京朝阳医院</t>
+  </si>
+  <si>
+    <t>海军军医第一附属医院</t>
+  </si>
+  <si>
+    <t>上海交大附属瑞金医院</t>
+  </si>
+  <si>
+    <t>浙大附属第四医院</t>
+  </si>
+  <si>
+    <t>浙大附属第二医院</t>
+  </si>
+  <si>
+    <t>浙大附属第一医院</t>
+  </si>
+  <si>
+    <t>温州医附属第二医院</t>
+  </si>
+  <si>
+    <t>河北医第二医院</t>
+  </si>
+  <si>
+    <t>河北省中医院</t>
+  </si>
+  <si>
+    <t>哈医大附属第一医院</t>
+  </si>
+  <si>
+    <t>山西医第一医院</t>
+  </si>
+  <si>
+    <t>hosp_abbrev</t>
+  </si>
+  <si>
+    <t>首都医科大学附属北京友谊医院</t>
+  </si>
+  <si>
+    <t>徐波</t>
+  </si>
+  <si>
+    <t>北京友谊医院</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1108,11 +1549,34 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1443,10 +1907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20076B4A-A81B-4D12-8B73-EBD4ED14E36F}">
-  <dimension ref="A1:F300"/>
+  <dimension ref="A1:J300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1454,11 +1918,13 @@
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="37" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="51.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1470,13 +1936,25 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>243</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1490,13 +1968,25 @@
         <v>5</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F2" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I2" t="s">
+        <v>247</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1510,13 +2000,19 @@
         <v>6</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F3" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1530,13 +2026,25 @@
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>248</v>
+      </c>
+      <c r="I4" t="s">
+        <v>249</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1550,13 +2058,25 @@
         <v>8</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I5" t="s">
+        <v>250</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1570,13 +2090,19 @@
         <v>9</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1590,13 +2116,25 @@
         <v>10</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>246</v>
+      </c>
+      <c r="I7" t="s">
+        <v>250</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1610,13 +2148,22 @@
         <v>11</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>251</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1630,13 +2177,19 @@
         <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F9" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1650,13 +2203,25 @@
         <v>13</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F10" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>252</v>
+      </c>
+      <c r="I10" t="s">
+        <v>253</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1670,13 +2235,25 @@
         <v>14</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F11" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>248</v>
+      </c>
+      <c r="I11" t="s">
+        <v>254</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1690,13 +2267,25 @@
         <v>16</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F12" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>255</v>
+      </c>
+      <c r="I12" t="s">
+        <v>256</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1710,13 +2299,19 @@
         <v>17</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1730,13 +2325,25 @@
         <v>18</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>257</v>
+      </c>
+      <c r="I14" t="s">
+        <v>258</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1750,13 +2357,25 @@
         <v>19</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F15" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>259</v>
+      </c>
+      <c r="I15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1770,13 +2389,25 @@
         <v>20</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F16" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>261</v>
+      </c>
+      <c r="I16" t="s">
+        <v>262</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1784,19 +2415,28 @@
         <v>3</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="E17" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F17" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="H17" t="s">
+        <v>264</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1804,19 +2444,28 @@
         <v>3</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F18" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="H18" t="s">
+        <v>265</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1824,19 +2473,28 @@
         <v>3</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F19" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="H19" t="s">
+        <v>266</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1844,19 +2502,31 @@
         <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="E20" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F20" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" t="s">
+        <v>267</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1864,19 +2534,31 @@
         <v>3</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F21" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" t="s">
+        <v>268</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1884,19 +2566,31 @@
         <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F22" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" t="s">
+        <v>269</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1904,19 +2598,31 @@
         <v>3</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F23" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" t="s">
+        <v>270</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1924,2858 +2630,3910 @@
         <v>3</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F24" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" t="s">
+        <v>271</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="E25" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F25" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" t="s">
+        <v>272</v>
+      </c>
+      <c r="I25" t="s">
+        <v>273</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="E26" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F26" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" t="s">
+        <v>272</v>
+      </c>
+      <c r="I26" t="s">
+        <v>273</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F27" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" t="s">
+        <v>274</v>
+      </c>
+      <c r="I27" t="s">
+        <v>275</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F28" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" t="s">
+        <v>276</v>
+      </c>
+      <c r="I28" t="s">
+        <v>277</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F29" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" t="s">
+        <v>274</v>
+      </c>
+      <c r="I29" t="s">
+        <v>278</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F30" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F31" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" t="s">
+        <v>274</v>
+      </c>
+      <c r="I31" t="s">
+        <v>279</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F32" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" t="s">
+        <v>280</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F33" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F34" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F35" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F36" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F37" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>46</v>
+        <v>281</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F38" s="25">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="H38" t="s">
+        <v>282</v>
+      </c>
+      <c r="I38" t="s">
+        <v>283</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F39" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>284</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F40" s="26">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>285</v>
+      </c>
+      <c r="I40" t="s">
+        <v>286</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F41" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>285</v>
+      </c>
+      <c r="I41" t="s">
+        <v>287</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F42" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>288</v>
+      </c>
+      <c r="I42" t="s">
+        <v>289</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F43" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43" t="s">
+        <v>290</v>
+      </c>
+      <c r="I43" t="s">
+        <v>291</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F44" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="H44" t="s">
+        <v>290</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F45" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="H45" t="s">
+        <v>292</v>
+      </c>
+      <c r="I45" t="s">
+        <v>293</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="E46" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F46" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="H46" t="s">
+        <v>294</v>
+      </c>
+      <c r="I46" t="s">
+        <v>295</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C47" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="E47" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F47" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47" t="s">
+        <v>294</v>
+      </c>
+      <c r="I47" t="s">
+        <v>295</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F48" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.75">
+      <c r="G48" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.75">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F49" s="27">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" t="s">
+        <v>296</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F50" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="H50" t="s">
+        <v>297</v>
+      </c>
+      <c r="I50" t="s">
+        <v>298</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F51" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F52" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="H52" t="s">
+        <v>299</v>
+      </c>
+      <c r="I52" t="s">
+        <v>300</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F53" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="H53" t="s">
+        <v>301</v>
+      </c>
+      <c r="I53" t="s">
+        <v>302</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F54" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="H54" t="s">
+        <v>303</v>
+      </c>
+      <c r="I54" t="s">
+        <v>304</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F55" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="H55" t="s">
+        <v>305</v>
+      </c>
+      <c r="I55" t="s">
+        <v>306</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F56" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H56" t="s">
+        <v>307</v>
+      </c>
+      <c r="I56" t="s">
+        <v>308</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F57" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H57" t="s">
+        <v>309</v>
+      </c>
+      <c r="I57" t="s">
+        <v>310</v>
+      </c>
+      <c r="J57" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F58" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H58" t="s">
+        <v>309</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C59" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D59" s="15" t="s">
-        <v>74</v>
-      </c>
       <c r="E59" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F59" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H59" t="s">
+        <v>311</v>
+      </c>
+      <c r="J59" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F60" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H60" t="s">
+        <v>312</v>
+      </c>
+      <c r="I60" t="s">
+        <v>313</v>
+      </c>
+      <c r="J60" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F61" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H61" t="s">
+        <v>314</v>
+      </c>
+      <c r="I61" t="s">
+        <v>315</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F62" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H62" t="s">
+        <v>309</v>
+      </c>
+      <c r="I62" t="s">
+        <v>357</v>
+      </c>
+      <c r="J62" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F63" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="H63" t="s">
+        <v>316</v>
+      </c>
+      <c r="I63" t="s">
+        <v>317</v>
+      </c>
+      <c r="J63" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E64" s="28" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F64" s="28">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="15.75">
+      <c r="G64" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="H64" t="s">
+        <v>318</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15.75">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E65" s="29" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F65" s="29">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="15.75">
+      <c r="G65" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15.75">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F66" s="27">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="15.75">
+      <c r="G66" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15.75">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F67" s="27">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="15.75">
+      <c r="G67" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="H67" t="s">
+        <v>319</v>
+      </c>
+      <c r="I67" t="s">
+        <v>320</v>
+      </c>
+      <c r="J67" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15.75">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F68" s="27">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="15.75">
+      <c r="G68" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="H68" t="s">
+        <v>321</v>
+      </c>
+      <c r="J68" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="15.75">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F69" s="27">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="15.75">
+      <c r="G69" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="H69" t="s">
+        <v>319</v>
+      </c>
+      <c r="I69" t="s">
+        <v>320</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15.75">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F70" s="30">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="15.75">
+      <c r="G70" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="15.75">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F71" s="27">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="H71" t="s">
+        <v>322</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F72" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="H72" t="s">
+        <v>323</v>
+      </c>
+      <c r="I72" t="s">
+        <v>324</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F73" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="15.75">
+      <c r="G73" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H73" t="s">
+        <v>274</v>
+      </c>
+      <c r="I73" t="s">
+        <v>325</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="15.75">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E74" s="27" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F74" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="15.75">
+      <c r="G74" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15.75">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E75" s="27" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F75" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="15.75">
+      <c r="G75" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H75" t="s">
+        <v>86</v>
+      </c>
+      <c r="I75" t="s">
+        <v>326</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="15.75">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C76" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D76" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="E76" s="31" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F76" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="15.75">
+      <c r="G76" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="15.75">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>93</v>
+        <v>358</v>
       </c>
       <c r="E77" s="27" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F77" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="15.75">
+      <c r="G77" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15.75">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E78" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F78" s="35">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="15.75">
+      <c r="G78" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H78" t="s">
+        <v>86</v>
+      </c>
+      <c r="I78" t="s">
+        <v>327</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15.75">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F79" s="35">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="15.75">
+      <c r="G79" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J79" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15.75">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E80" s="27" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F80" s="35">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="15.75">
+      <c r="G80" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="15.75">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E81" s="27" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F81" s="35">
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="15.75">
+      <c r="G81" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J81" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="15.75">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E82" s="27" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F82" s="35">
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="15.75">
+      <c r="G82" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="H82" t="s">
+        <v>328</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="15.75">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C83" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D83" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D83" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="E83" s="27" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F83" s="35">
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="15.75">
+      <c r="G83" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="H83" t="s">
+        <v>328</v>
+      </c>
+      <c r="I83" t="s">
+        <v>329</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="15.75">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E84" s="27" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F84" s="35">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="15.75">
+      <c r="G84" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="15.75">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E85" s="27" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F85" s="35">
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="15.75">
+      <c r="G85" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="H85" t="s">
+        <v>330</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="15.75">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E86" s="27" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F86" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="15.75">
+      <c r="G86" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="H86" t="s">
+        <v>100</v>
+      </c>
+      <c r="I86" t="s">
+        <v>331</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="15.75">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E87" s="27" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F87" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="15.75">
+      <c r="G87" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="H87" t="s">
+        <v>100</v>
+      </c>
+      <c r="I87" t="s">
+        <v>332</v>
+      </c>
+      <c r="J87" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="15.75">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E88" s="27" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F88" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="15.75">
+      <c r="G88" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="J88" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="15.75">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E89" s="27" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F89" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="15.75">
+      <c r="G89" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="J89" s="18" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="15.75">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E90" s="27" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F90" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="15.75">
+      <c r="G90" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="H90" t="s">
+        <v>100</v>
+      </c>
+      <c r="I90" t="s">
+        <v>333</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="15.75">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C91" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D91" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D91" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="E91" s="27" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F91" s="35">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="15.75">
+      <c r="G91" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="H91" t="s">
+        <v>100</v>
+      </c>
+      <c r="I91" t="s">
+        <v>334</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="15.75">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E92" s="27" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F92" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="15.75">
+      <c r="G92" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="H92" t="s">
+        <v>335</v>
+      </c>
+      <c r="J92" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="15.75">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E93" s="31" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F93" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="15.75">
+      <c r="G93" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="H93" t="s">
+        <v>336</v>
+      </c>
+      <c r="I93" t="s">
+        <v>337</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="15.75">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E94" s="27" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F94" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="15.75">
+      <c r="G94" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="H94" t="s">
+        <v>338</v>
+      </c>
+      <c r="J94" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="15.75">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C95" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D95" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D95" s="6" t="s">
-        <v>113</v>
-      </c>
       <c r="E95" s="27" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F95" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="15.75">
+      <c r="G95" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="15.75">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E96" s="32" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F96" s="36">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="15.75">
+      <c r="G96" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="H96" t="s">
+        <v>336</v>
+      </c>
+      <c r="I96" t="s">
+        <v>339</v>
+      </c>
+      <c r="J96" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="15.75">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E97" s="27" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F97" s="35">
         <v>2</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="15.75">
+      <c r="G97" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="H97" t="s">
+        <v>336</v>
+      </c>
+      <c r="I97" t="s">
+        <v>340</v>
+      </c>
+      <c r="J97" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="15.75">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E98" s="27" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F98" s="35">
         <v>2</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="G98" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="J98" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F99" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="J99" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F100" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H100" t="s">
+        <v>341</v>
+      </c>
+      <c r="I100" t="s">
+        <v>342</v>
+      </c>
+      <c r="J100" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F101" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="G101" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H101" t="s">
+        <v>343</v>
+      </c>
+      <c r="I101" t="s">
+        <v>344</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C102" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>121</v>
-      </c>
       <c r="E102" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F102" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H102" t="s">
+        <v>345</v>
+      </c>
+      <c r="I102" t="s">
+        <v>346</v>
+      </c>
+      <c r="J102" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F103" s="25">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="J103" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C104" s="21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E104" s="33" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F104" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="G104" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="J104" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F105" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="G105" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="H105" t="s">
+        <v>347</v>
+      </c>
+      <c r="I105" t="s">
+        <v>348</v>
+      </c>
+      <c r="J105" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C106" s="21" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F106" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="G106" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="H106" t="s">
+        <v>347</v>
+      </c>
+      <c r="I106" t="s">
+        <v>349</v>
+      </c>
+      <c r="J106" s="15" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F107" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="G107" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="H107" t="s">
+        <v>350</v>
+      </c>
+      <c r="I107" t="s">
+        <v>351</v>
+      </c>
+      <c r="J107" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F108" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="G108" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="H108" t="s">
+        <v>352</v>
+      </c>
+      <c r="J108" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F109" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" ht="15.75">
-      <c r="B110" s="22"/>
-      <c r="C110" s="22"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="34"/>
-      <c r="F110" s="34"/>
-    </row>
-    <row r="111" spans="1:6" ht="15.75">
+      <c r="G109" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="H109" t="s">
+        <v>353</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="15.75">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="E110" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="F110" s="34">
+        <v>2</v>
+      </c>
+      <c r="G110" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="J110" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="15.75">
       <c r="B111" s="22"/>
       <c r="C111" s="22"/>
       <c r="D111" s="23"/>
       <c r="E111" s="34"/>
       <c r="F111" s="34"/>
-    </row>
-    <row r="112" spans="1:6" ht="15.75">
+      <c r="J111" s="23"/>
+    </row>
+    <row r="112" spans="1:10" ht="15.75">
       <c r="B112" s="22"/>
       <c r="C112" s="22"/>
       <c r="D112" s="23"/>
       <c r="E112" s="34"/>
       <c r="F112" s="34"/>
-    </row>
-    <row r="113" spans="2:6" ht="15.75">
+      <c r="J112" s="23"/>
+    </row>
+    <row r="113" spans="2:10" ht="15.75">
       <c r="B113" s="22"/>
       <c r="C113" s="22"/>
       <c r="D113" s="23"/>
       <c r="E113" s="34"/>
       <c r="F113" s="34"/>
-    </row>
-    <row r="114" spans="2:6" ht="15.75">
+      <c r="J113" s="23"/>
+    </row>
+    <row r="114" spans="2:10" ht="15.75">
       <c r="B114" s="22"/>
       <c r="C114" s="22"/>
       <c r="D114" s="23"/>
       <c r="E114" s="34"/>
       <c r="F114" s="34"/>
-    </row>
-    <row r="115" spans="2:6" ht="15.75">
+      <c r="J114" s="23"/>
+    </row>
+    <row r="115" spans="2:10" ht="15.75">
       <c r="B115" s="22"/>
       <c r="C115" s="22"/>
       <c r="D115" s="23"/>
       <c r="E115" s="34"/>
       <c r="F115" s="34"/>
-    </row>
-    <row r="116" spans="2:6" ht="15.75">
+      <c r="J115" s="23"/>
+    </row>
+    <row r="116" spans="2:10" ht="15.75">
       <c r="B116" s="22"/>
       <c r="C116" s="22"/>
       <c r="D116" s="23"/>
       <c r="E116" s="34"/>
       <c r="F116" s="34"/>
-    </row>
-    <row r="117" spans="2:6" ht="15.75">
+      <c r="J116" s="23"/>
+    </row>
+    <row r="117" spans="2:10" ht="15.75">
       <c r="B117" s="22"/>
       <c r="C117" s="22"/>
       <c r="D117" s="23"/>
       <c r="E117" s="34"/>
       <c r="F117" s="34"/>
-    </row>
-    <row r="118" spans="2:6" ht="15.75">
+      <c r="J117" s="23"/>
+    </row>
+    <row r="118" spans="2:10" ht="15.75">
       <c r="B118" s="22"/>
       <c r="C118" s="22"/>
       <c r="D118" s="23"/>
       <c r="E118" s="34"/>
       <c r="F118" s="34"/>
-    </row>
-    <row r="119" spans="2:6" ht="15.75">
+      <c r="J118" s="23"/>
+    </row>
+    <row r="119" spans="2:10" ht="15.75">
       <c r="B119" s="22"/>
       <c r="C119" s="22"/>
       <c r="D119" s="23"/>
       <c r="E119" s="34"/>
       <c r="F119" s="34"/>
-    </row>
-    <row r="120" spans="2:6" ht="15.75">
+      <c r="J119" s="23"/>
+    </row>
+    <row r="120" spans="2:10" ht="15.75">
       <c r="B120" s="22"/>
       <c r="C120" s="22"/>
       <c r="D120" s="23"/>
       <c r="E120" s="34"/>
       <c r="F120" s="34"/>
-    </row>
-    <row r="121" spans="2:6" ht="15.75">
+      <c r="J120" s="23"/>
+    </row>
+    <row r="121" spans="2:10" ht="15.75">
       <c r="B121" s="22"/>
       <c r="C121" s="22"/>
       <c r="D121" s="23"/>
       <c r="E121" s="34"/>
       <c r="F121" s="34"/>
-    </row>
-    <row r="122" spans="2:6" ht="15.75">
+      <c r="J121" s="23"/>
+    </row>
+    <row r="122" spans="2:10" ht="15.75">
       <c r="B122" s="22"/>
       <c r="C122" s="22"/>
       <c r="D122" s="23"/>
       <c r="E122" s="34"/>
       <c r="F122" s="34"/>
-    </row>
-    <row r="123" spans="2:6" ht="15.75">
+      <c r="J122" s="23"/>
+    </row>
+    <row r="123" spans="2:10" ht="15.75">
       <c r="B123" s="22"/>
       <c r="C123" s="22"/>
       <c r="D123" s="23"/>
       <c r="E123" s="34"/>
       <c r="F123" s="34"/>
-    </row>
-    <row r="124" spans="2:6" ht="15.75">
+      <c r="J123" s="23"/>
+    </row>
+    <row r="124" spans="2:10" ht="15.75">
       <c r="B124" s="22"/>
       <c r="C124" s="22"/>
       <c r="D124" s="23"/>
       <c r="E124" s="34"/>
       <c r="F124" s="34"/>
-    </row>
-    <row r="125" spans="2:6" ht="15.75">
+      <c r="J124" s="23"/>
+    </row>
+    <row r="125" spans="2:10" ht="15.75">
       <c r="B125" s="22"/>
       <c r="C125" s="22"/>
       <c r="D125" s="23"/>
       <c r="E125" s="34"/>
       <c r="F125" s="34"/>
-    </row>
-    <row r="126" spans="2:6" ht="15.75">
+      <c r="J125" s="23"/>
+    </row>
+    <row r="126" spans="2:10" ht="15.75">
       <c r="B126" s="22"/>
       <c r="C126" s="22"/>
       <c r="D126" s="23"/>
       <c r="E126" s="34"/>
       <c r="F126" s="34"/>
-    </row>
-    <row r="127" spans="2:6" ht="15.75">
+      <c r="J126" s="23"/>
+    </row>
+    <row r="127" spans="2:10" ht="15.75">
       <c r="B127" s="22"/>
       <c r="C127" s="22"/>
       <c r="D127" s="23"/>
       <c r="E127" s="34"/>
       <c r="F127" s="34"/>
-    </row>
-    <row r="128" spans="2:6" ht="15.75">
+      <c r="J127" s="23"/>
+    </row>
+    <row r="128" spans="2:10" ht="15.75">
       <c r="B128" s="22"/>
       <c r="C128" s="22"/>
       <c r="D128" s="23"/>
       <c r="E128" s="34"/>
       <c r="F128" s="34"/>
-    </row>
-    <row r="129" spans="2:6" ht="15.75">
+      <c r="J128" s="23"/>
+    </row>
+    <row r="129" spans="2:10" ht="15.75">
       <c r="B129" s="22"/>
       <c r="C129" s="22"/>
       <c r="D129" s="23"/>
       <c r="E129" s="34"/>
       <c r="F129" s="34"/>
-    </row>
-    <row r="130" spans="2:6" ht="15.75">
+      <c r="J129" s="23"/>
+    </row>
+    <row r="130" spans="2:10" ht="15.75">
       <c r="B130" s="22"/>
       <c r="C130" s="22"/>
       <c r="D130" s="23"/>
       <c r="E130" s="34"/>
       <c r="F130" s="34"/>
-    </row>
-    <row r="131" spans="2:6" ht="15.75">
+      <c r="J130" s="23"/>
+    </row>
+    <row r="131" spans="2:10" ht="15.75">
       <c r="B131" s="22"/>
       <c r="C131" s="22"/>
       <c r="D131" s="23"/>
       <c r="E131" s="34"/>
       <c r="F131" s="34"/>
-    </row>
-    <row r="132" spans="2:6" ht="15.75">
+      <c r="J131" s="23"/>
+    </row>
+    <row r="132" spans="2:10" ht="15.75">
       <c r="B132" s="22"/>
       <c r="C132" s="22"/>
       <c r="D132" s="23"/>
       <c r="E132" s="34"/>
       <c r="F132" s="34"/>
-    </row>
-    <row r="133" spans="2:6" ht="15.75">
+      <c r="J132" s="23"/>
+    </row>
+    <row r="133" spans="2:10" ht="15.75">
       <c r="B133" s="22"/>
       <c r="C133" s="22"/>
       <c r="D133" s="23"/>
       <c r="E133" s="34"/>
       <c r="F133" s="34"/>
-    </row>
-    <row r="134" spans="2:6" ht="15.75">
+      <c r="J133" s="23"/>
+    </row>
+    <row r="134" spans="2:10" ht="15.75">
       <c r="B134" s="22"/>
       <c r="C134" s="22"/>
       <c r="D134" s="23"/>
       <c r="E134" s="34"/>
       <c r="F134" s="34"/>
-    </row>
-    <row r="135" spans="2:6" ht="15.75">
+      <c r="J134" s="23"/>
+    </row>
+    <row r="135" spans="2:10" ht="15.75">
       <c r="B135" s="22"/>
       <c r="C135" s="22"/>
       <c r="D135" s="23"/>
       <c r="E135" s="34"/>
       <c r="F135" s="34"/>
-    </row>
-    <row r="136" spans="2:6" ht="15.75">
+      <c r="J135" s="23"/>
+    </row>
+    <row r="136" spans="2:10" ht="15.75">
       <c r="B136" s="22"/>
       <c r="C136" s="22"/>
       <c r="D136" s="23"/>
       <c r="E136" s="34"/>
       <c r="F136" s="34"/>
-    </row>
-    <row r="137" spans="2:6" ht="15.75">
+      <c r="J136" s="23"/>
+    </row>
+    <row r="137" spans="2:10" ht="15.75">
       <c r="B137" s="22"/>
       <c r="C137" s="22"/>
       <c r="D137" s="23"/>
       <c r="E137" s="34"/>
       <c r="F137" s="34"/>
-    </row>
-    <row r="138" spans="2:6" ht="15.75">
+      <c r="J137" s="23"/>
+    </row>
+    <row r="138" spans="2:10" ht="15.75">
       <c r="B138" s="22"/>
       <c r="C138" s="22"/>
       <c r="D138" s="23"/>
       <c r="E138" s="34"/>
       <c r="F138" s="34"/>
-    </row>
-    <row r="139" spans="2:6" ht="15.75">
+      <c r="J138" s="23"/>
+    </row>
+    <row r="139" spans="2:10" ht="15.75">
       <c r="B139" s="22"/>
       <c r="C139" s="22"/>
       <c r="D139" s="23"/>
       <c r="E139" s="34"/>
       <c r="F139" s="34"/>
-    </row>
-    <row r="140" spans="2:6" ht="15.75">
+      <c r="J139" s="23"/>
+    </row>
+    <row r="140" spans="2:10" ht="15.75">
       <c r="B140" s="22"/>
       <c r="C140" s="22"/>
       <c r="D140" s="23"/>
       <c r="E140" s="34"/>
       <c r="F140" s="34"/>
-    </row>
-    <row r="141" spans="2:6" ht="15.75">
+      <c r="J140" s="23"/>
+    </row>
+    <row r="141" spans="2:10" ht="15.75">
       <c r="B141" s="22"/>
       <c r="C141" s="22"/>
       <c r="D141" s="23"/>
       <c r="E141" s="34"/>
       <c r="F141" s="34"/>
-    </row>
-    <row r="142" spans="2:6" ht="15.75">
+      <c r="J141" s="23"/>
+    </row>
+    <row r="142" spans="2:10" ht="15.75">
       <c r="B142" s="22"/>
       <c r="C142" s="22"/>
       <c r="D142" s="23"/>
       <c r="E142" s="34"/>
       <c r="F142" s="34"/>
-    </row>
-    <row r="143" spans="2:6" ht="15.75">
+      <c r="J142" s="23"/>
+    </row>
+    <row r="143" spans="2:10" ht="15.75">
       <c r="B143" s="22"/>
       <c r="C143" s="22"/>
       <c r="D143" s="23"/>
       <c r="E143" s="34"/>
       <c r="F143" s="34"/>
-    </row>
-    <row r="144" spans="2:6" ht="15.75">
+      <c r="J143" s="23"/>
+    </row>
+    <row r="144" spans="2:10" ht="15.75">
       <c r="B144" s="22"/>
       <c r="C144" s="22"/>
       <c r="D144" s="23"/>
       <c r="E144" s="34"/>
       <c r="F144" s="34"/>
-    </row>
-    <row r="145" spans="2:6" ht="15.75">
+      <c r="J144" s="23"/>
+    </row>
+    <row r="145" spans="2:10" ht="15.75">
       <c r="B145" s="22"/>
       <c r="C145" s="22"/>
       <c r="D145" s="23"/>
       <c r="E145" s="34"/>
       <c r="F145" s="34"/>
-    </row>
-    <row r="146" spans="2:6" ht="15.75">
+      <c r="J145" s="23"/>
+    </row>
+    <row r="146" spans="2:10" ht="15.75">
       <c r="B146" s="22"/>
       <c r="C146" s="22"/>
       <c r="D146" s="23"/>
       <c r="E146" s="34"/>
       <c r="F146" s="34"/>
-    </row>
-    <row r="147" spans="2:6" ht="15.75">
+      <c r="J146" s="23"/>
+    </row>
+    <row r="147" spans="2:10" ht="15.75">
       <c r="B147" s="22"/>
       <c r="C147" s="22"/>
       <c r="D147" s="23"/>
       <c r="E147" s="34"/>
       <c r="F147" s="34"/>
-    </row>
-    <row r="148" spans="2:6" ht="15.75">
+      <c r="J147" s="23"/>
+    </row>
+    <row r="148" spans="2:10" ht="15.75">
       <c r="B148" s="22"/>
       <c r="C148" s="22"/>
       <c r="D148" s="23"/>
       <c r="E148" s="34"/>
       <c r="F148" s="34"/>
-    </row>
-    <row r="149" spans="2:6" ht="15.75">
+      <c r="J148" s="23"/>
+    </row>
+    <row r="149" spans="2:10" ht="15.75">
       <c r="B149" s="22"/>
       <c r="C149" s="22"/>
       <c r="D149" s="23"/>
       <c r="E149" s="34"/>
       <c r="F149" s="34"/>
-    </row>
-    <row r="150" spans="2:6" ht="15.75">
+      <c r="J149" s="23"/>
+    </row>
+    <row r="150" spans="2:10" ht="15.75">
       <c r="B150" s="22"/>
       <c r="C150" s="22"/>
       <c r="D150" s="23"/>
       <c r="E150" s="34"/>
       <c r="F150" s="34"/>
-    </row>
-    <row r="151" spans="2:6" ht="15.75">
+      <c r="J150" s="23"/>
+    </row>
+    <row r="151" spans="2:10" ht="15.75">
       <c r="B151" s="22"/>
       <c r="C151" s="22"/>
       <c r="D151" s="23"/>
       <c r="E151" s="34"/>
       <c r="F151" s="34"/>
-    </row>
-    <row r="152" spans="2:6" ht="15.75">
+      <c r="J151" s="23"/>
+    </row>
+    <row r="152" spans="2:10" ht="15.75">
       <c r="B152" s="22"/>
       <c r="C152" s="22"/>
       <c r="D152" s="23"/>
       <c r="E152" s="34"/>
       <c r="F152" s="34"/>
-    </row>
-    <row r="153" spans="2:6" ht="15.75">
+      <c r="J152" s="23"/>
+    </row>
+    <row r="153" spans="2:10" ht="15.75">
       <c r="B153" s="22"/>
       <c r="C153" s="22"/>
       <c r="D153" s="23"/>
       <c r="E153" s="34"/>
       <c r="F153" s="34"/>
-    </row>
-    <row r="154" spans="2:6" ht="15.75">
+      <c r="J153" s="23"/>
+    </row>
+    <row r="154" spans="2:10" ht="15.75">
       <c r="B154" s="22"/>
       <c r="C154" s="22"/>
       <c r="D154" s="23"/>
       <c r="E154" s="34"/>
       <c r="F154" s="34"/>
-    </row>
-    <row r="155" spans="2:6" ht="15.75">
+      <c r="J154" s="23"/>
+    </row>
+    <row r="155" spans="2:10" ht="15.75">
       <c r="B155" s="22"/>
       <c r="C155" s="22"/>
       <c r="D155" s="23"/>
       <c r="E155" s="34"/>
       <c r="F155" s="34"/>
-    </row>
-    <row r="156" spans="2:6" ht="15.75">
+      <c r="J155" s="23"/>
+    </row>
+    <row r="156" spans="2:10" ht="15.75">
       <c r="B156" s="22"/>
       <c r="C156" s="22"/>
       <c r="D156" s="23"/>
       <c r="E156" s="34"/>
       <c r="F156" s="34"/>
-    </row>
-    <row r="157" spans="2:6" ht="15.75">
+      <c r="J156" s="23"/>
+    </row>
+    <row r="157" spans="2:10" ht="15.75">
       <c r="B157" s="22"/>
       <c r="C157" s="22"/>
       <c r="D157" s="23"/>
       <c r="E157" s="34"/>
       <c r="F157" s="34"/>
-    </row>
-    <row r="158" spans="2:6" ht="15.75">
+      <c r="J157" s="23"/>
+    </row>
+    <row r="158" spans="2:10" ht="15.75">
       <c r="B158" s="22"/>
       <c r="C158" s="22"/>
       <c r="D158" s="23"/>
       <c r="E158" s="34"/>
       <c r="F158" s="34"/>
-    </row>
-    <row r="159" spans="2:6" ht="15.75">
+      <c r="J158" s="23"/>
+    </row>
+    <row r="159" spans="2:10" ht="15.75">
       <c r="B159" s="22"/>
       <c r="C159" s="22"/>
       <c r="D159" s="23"/>
       <c r="E159" s="34"/>
       <c r="F159" s="34"/>
-    </row>
-    <row r="160" spans="2:6" ht="15.75">
+      <c r="J159" s="23"/>
+    </row>
+    <row r="160" spans="2:10" ht="15.75">
       <c r="B160" s="22"/>
       <c r="C160" s="22"/>
       <c r="D160" s="23"/>
       <c r="E160" s="34"/>
       <c r="F160" s="34"/>
-    </row>
-    <row r="161" spans="2:6" ht="15.75">
+      <c r="J160" s="23"/>
+    </row>
+    <row r="161" spans="2:10" ht="15.75">
       <c r="B161" s="22"/>
       <c r="C161" s="22"/>
       <c r="D161" s="23"/>
       <c r="E161" s="34"/>
       <c r="F161" s="34"/>
-    </row>
-    <row r="162" spans="2:6" ht="15.75">
+      <c r="J161" s="23"/>
+    </row>
+    <row r="162" spans="2:10" ht="15.75">
       <c r="B162" s="22"/>
       <c r="C162" s="22"/>
       <c r="D162" s="23"/>
       <c r="E162" s="34"/>
       <c r="F162" s="34"/>
-    </row>
-    <row r="163" spans="2:6" ht="15.75">
+      <c r="J162" s="23"/>
+    </row>
+    <row r="163" spans="2:10" ht="15.75">
       <c r="B163" s="22"/>
       <c r="C163" s="22"/>
       <c r="D163" s="23"/>
       <c r="E163" s="34"/>
       <c r="F163" s="34"/>
-    </row>
-    <row r="164" spans="2:6" ht="15.75">
+      <c r="J163" s="23"/>
+    </row>
+    <row r="164" spans="2:10" ht="15.75">
       <c r="B164" s="22"/>
       <c r="C164" s="22"/>
       <c r="D164" s="23"/>
       <c r="E164" s="34"/>
       <c r="F164" s="34"/>
-    </row>
-    <row r="165" spans="2:6" ht="15.75">
+      <c r="J164" s="23"/>
+    </row>
+    <row r="165" spans="2:10" ht="15.75">
       <c r="B165" s="22"/>
       <c r="C165" s="22"/>
       <c r="D165" s="23"/>
       <c r="E165" s="34"/>
       <c r="F165" s="34"/>
-    </row>
-    <row r="166" spans="2:6" ht="15.75">
+      <c r="J165" s="23"/>
+    </row>
+    <row r="166" spans="2:10" ht="15.75">
       <c r="B166" s="22"/>
       <c r="C166" s="22"/>
       <c r="D166" s="23"/>
       <c r="E166" s="34"/>
       <c r="F166" s="34"/>
-    </row>
-    <row r="167" spans="2:6" ht="15.75">
+      <c r="J166" s="23"/>
+    </row>
+    <row r="167" spans="2:10" ht="15.75">
       <c r="B167" s="22"/>
       <c r="C167" s="22"/>
       <c r="D167" s="23"/>
       <c r="E167" s="34"/>
       <c r="F167" s="34"/>
-    </row>
-    <row r="168" spans="2:6" ht="15.75">
+      <c r="J167" s="23"/>
+    </row>
+    <row r="168" spans="2:10" ht="15.75">
       <c r="B168" s="22"/>
       <c r="C168" s="22"/>
       <c r="D168" s="23"/>
       <c r="E168" s="34"/>
       <c r="F168" s="34"/>
-    </row>
-    <row r="169" spans="2:6" ht="15.75">
+      <c r="J168" s="23"/>
+    </row>
+    <row r="169" spans="2:10" ht="15.75">
       <c r="B169" s="22"/>
       <c r="C169" s="22"/>
       <c r="D169" s="23"/>
       <c r="E169" s="34"/>
       <c r="F169" s="34"/>
-    </row>
-    <row r="170" spans="2:6" ht="15.75">
+      <c r="J169" s="23"/>
+    </row>
+    <row r="170" spans="2:10" ht="15.75">
       <c r="B170" s="22"/>
       <c r="C170" s="22"/>
       <c r="D170" s="23"/>
       <c r="E170" s="34"/>
       <c r="F170" s="34"/>
-    </row>
-    <row r="171" spans="2:6" ht="15.75">
+      <c r="J170" s="23"/>
+    </row>
+    <row r="171" spans="2:10" ht="15.75">
       <c r="B171" s="22"/>
       <c r="C171" s="22"/>
       <c r="D171" s="23"/>
       <c r="E171" s="34"/>
       <c r="F171" s="34"/>
-    </row>
-    <row r="172" spans="2:6" ht="15.75">
+      <c r="J171" s="23"/>
+    </row>
+    <row r="172" spans="2:10" ht="15.75">
       <c r="B172" s="22"/>
       <c r="C172" s="22"/>
       <c r="D172" s="23"/>
       <c r="E172" s="34"/>
       <c r="F172" s="34"/>
-    </row>
-    <row r="173" spans="2:6" ht="15.75">
+      <c r="J172" s="23"/>
+    </row>
+    <row r="173" spans="2:10" ht="15.75">
       <c r="B173" s="22"/>
       <c r="C173" s="22"/>
       <c r="D173" s="23"/>
       <c r="E173" s="34"/>
       <c r="F173" s="34"/>
-    </row>
-    <row r="174" spans="2:6" ht="15.75">
+      <c r="J173" s="23"/>
+    </row>
+    <row r="174" spans="2:10" ht="15.75">
       <c r="B174" s="22"/>
       <c r="C174" s="22"/>
       <c r="D174" s="23"/>
       <c r="E174" s="34"/>
       <c r="F174" s="34"/>
-    </row>
-    <row r="175" spans="2:6" ht="15.75">
+      <c r="J174" s="23"/>
+    </row>
+    <row r="175" spans="2:10" ht="15.75">
       <c r="B175" s="22"/>
       <c r="C175" s="22"/>
       <c r="D175" s="23"/>
       <c r="E175" s="34"/>
       <c r="F175" s="34"/>
-    </row>
-    <row r="176" spans="2:6" ht="15.75">
+      <c r="J175" s="23"/>
+    </row>
+    <row r="176" spans="2:10" ht="15.75">
       <c r="B176" s="22"/>
       <c r="C176" s="22"/>
       <c r="D176" s="23"/>
       <c r="E176" s="34"/>
       <c r="F176" s="34"/>
-    </row>
-    <row r="177" spans="2:6" ht="15.75">
+      <c r="J176" s="23"/>
+    </row>
+    <row r="177" spans="2:10" ht="15.75">
       <c r="B177" s="22"/>
       <c r="C177" s="22"/>
       <c r="D177" s="23"/>
       <c r="E177" s="34"/>
       <c r="F177" s="34"/>
-    </row>
-    <row r="178" spans="2:6" ht="15.75">
+      <c r="J177" s="23"/>
+    </row>
+    <row r="178" spans="2:10" ht="15.75">
       <c r="B178" s="22"/>
       <c r="C178" s="22"/>
       <c r="D178" s="23"/>
       <c r="E178" s="34"/>
       <c r="F178" s="34"/>
-    </row>
-    <row r="179" spans="2:6" ht="15.75">
+      <c r="J178" s="23"/>
+    </row>
+    <row r="179" spans="2:10" ht="15.75">
       <c r="B179" s="22"/>
       <c r="C179" s="22"/>
       <c r="D179" s="23"/>
       <c r="E179" s="34"/>
       <c r="F179" s="34"/>
-    </row>
-    <row r="180" spans="2:6" ht="15.75">
+      <c r="J179" s="23"/>
+    </row>
+    <row r="180" spans="2:10" ht="15.75">
       <c r="B180" s="22"/>
       <c r="C180" s="22"/>
       <c r="D180" s="23"/>
       <c r="E180" s="34"/>
       <c r="F180" s="34"/>
-    </row>
-    <row r="181" spans="2:6" ht="15.75">
+      <c r="J180" s="23"/>
+    </row>
+    <row r="181" spans="2:10" ht="15.75">
       <c r="B181" s="22"/>
       <c r="C181" s="22"/>
       <c r="D181" s="23"/>
       <c r="E181" s="34"/>
       <c r="F181" s="34"/>
-    </row>
-    <row r="182" spans="2:6" ht="15.75">
+      <c r="J181" s="23"/>
+    </row>
+    <row r="182" spans="2:10" ht="15.75">
       <c r="B182" s="22"/>
       <c r="C182" s="22"/>
       <c r="D182" s="23"/>
       <c r="E182" s="34"/>
       <c r="F182" s="34"/>
-    </row>
-    <row r="183" spans="2:6" ht="15.75">
+      <c r="J182" s="23"/>
+    </row>
+    <row r="183" spans="2:10" ht="15.75">
       <c r="B183" s="22"/>
       <c r="C183" s="22"/>
       <c r="D183" s="23"/>
       <c r="E183" s="34"/>
       <c r="F183" s="34"/>
-    </row>
-    <row r="184" spans="2:6" ht="15.75">
+      <c r="J183" s="23"/>
+    </row>
+    <row r="184" spans="2:10" ht="15.75">
       <c r="B184" s="22"/>
       <c r="C184" s="22"/>
       <c r="D184" s="23"/>
       <c r="E184" s="34"/>
       <c r="F184" s="34"/>
-    </row>
-    <row r="185" spans="2:6" ht="15.75">
+      <c r="J184" s="23"/>
+    </row>
+    <row r="185" spans="2:10" ht="15.75">
       <c r="B185" s="22"/>
       <c r="C185" s="22"/>
       <c r="D185" s="23"/>
       <c r="E185" s="34"/>
       <c r="F185" s="34"/>
-    </row>
-    <row r="186" spans="2:6" ht="15.75">
+      <c r="J185" s="23"/>
+    </row>
+    <row r="186" spans="2:10" ht="15.75">
       <c r="B186" s="22"/>
       <c r="C186" s="22"/>
       <c r="D186" s="23"/>
       <c r="E186" s="34"/>
       <c r="F186" s="34"/>
-    </row>
-    <row r="187" spans="2:6" ht="15.75">
+      <c r="J186" s="23"/>
+    </row>
+    <row r="187" spans="2:10" ht="15.75">
       <c r="B187" s="22"/>
       <c r="C187" s="22"/>
       <c r="D187" s="23"/>
       <c r="E187" s="34"/>
       <c r="F187" s="34"/>
-    </row>
-    <row r="188" spans="2:6" ht="15.75">
+      <c r="J187" s="23"/>
+    </row>
+    <row r="188" spans="2:10" ht="15.75">
       <c r="B188" s="22"/>
       <c r="C188" s="22"/>
       <c r="D188" s="23"/>
       <c r="E188" s="34"/>
       <c r="F188" s="34"/>
-    </row>
-    <row r="189" spans="2:6" ht="15.75">
+      <c r="J188" s="23"/>
+    </row>
+    <row r="189" spans="2:10" ht="15.75">
       <c r="B189" s="22"/>
       <c r="C189" s="22"/>
       <c r="D189" s="23"/>
       <c r="E189" s="34"/>
       <c r="F189" s="34"/>
-    </row>
-    <row r="190" spans="2:6" ht="15.75">
+      <c r="J189" s="23"/>
+    </row>
+    <row r="190" spans="2:10" ht="15.75">
       <c r="B190" s="22"/>
       <c r="C190" s="22"/>
       <c r="D190" s="23"/>
       <c r="E190" s="34"/>
       <c r="F190" s="34"/>
-    </row>
-    <row r="191" spans="2:6" ht="15.75">
+      <c r="J190" s="23"/>
+    </row>
+    <row r="191" spans="2:10" ht="15.75">
       <c r="B191" s="22"/>
       <c r="C191" s="22"/>
       <c r="D191" s="23"/>
       <c r="E191" s="34"/>
       <c r="F191" s="34"/>
-    </row>
-    <row r="192" spans="2:6" ht="15.75">
+      <c r="J191" s="23"/>
+    </row>
+    <row r="192" spans="2:10" ht="15.75">
       <c r="B192" s="22"/>
       <c r="C192" s="22"/>
       <c r="D192" s="23"/>
       <c r="E192" s="34"/>
       <c r="F192" s="34"/>
-    </row>
-    <row r="193" spans="2:6" ht="15.75">
+      <c r="J192" s="23"/>
+    </row>
+    <row r="193" spans="2:10" ht="15.75">
       <c r="B193" s="22"/>
       <c r="C193" s="22"/>
       <c r="D193" s="23"/>
       <c r="E193" s="34"/>
       <c r="F193" s="34"/>
-    </row>
-    <row r="194" spans="2:6" ht="15.75">
+      <c r="J193" s="23"/>
+    </row>
+    <row r="194" spans="2:10" ht="15.75">
       <c r="B194" s="22"/>
       <c r="C194" s="22"/>
       <c r="D194" s="23"/>
       <c r="E194" s="34"/>
       <c r="F194" s="34"/>
-    </row>
-    <row r="195" spans="2:6" ht="15.75">
+      <c r="J194" s="23"/>
+    </row>
+    <row r="195" spans="2:10" ht="15.75">
       <c r="B195" s="22"/>
       <c r="C195" s="22"/>
       <c r="D195" s="23"/>
       <c r="E195" s="34"/>
       <c r="F195" s="34"/>
-    </row>
-    <row r="196" spans="2:6" ht="15.75">
+      <c r="J195" s="23"/>
+    </row>
+    <row r="196" spans="2:10" ht="15.75">
       <c r="B196" s="22"/>
       <c r="C196" s="22"/>
       <c r="D196" s="23"/>
       <c r="E196" s="34"/>
       <c r="F196" s="34"/>
-    </row>
-    <row r="197" spans="2:6" ht="15.75">
+      <c r="J196" s="23"/>
+    </row>
+    <row r="197" spans="2:10" ht="15.75">
       <c r="B197" s="22"/>
       <c r="C197" s="22"/>
       <c r="D197" s="23"/>
       <c r="E197" s="34"/>
       <c r="F197" s="34"/>
-    </row>
-    <row r="198" spans="2:6" ht="15.75">
+      <c r="J197" s="23"/>
+    </row>
+    <row r="198" spans="2:10" ht="15.75">
       <c r="B198" s="22"/>
       <c r="C198" s="22"/>
       <c r="D198" s="23"/>
       <c r="E198" s="34"/>
       <c r="F198" s="34"/>
-    </row>
-    <row r="199" spans="2:6" ht="15.75">
+      <c r="J198" s="23"/>
+    </row>
+    <row r="199" spans="2:10" ht="15.75">
       <c r="B199" s="22"/>
       <c r="C199" s="22"/>
       <c r="D199" s="23"/>
       <c r="E199" s="34"/>
       <c r="F199" s="34"/>
-    </row>
-    <row r="200" spans="2:6">
+      <c r="J199" s="23"/>
+    </row>
+    <row r="200" spans="2:10">
       <c r="B200" s="22"/>
       <c r="C200" s="22"/>
       <c r="D200" s="23"/>
-    </row>
-    <row r="201" spans="2:6">
+      <c r="J200" s="23"/>
+    </row>
+    <row r="201" spans="2:10">
       <c r="B201" s="22"/>
       <c r="C201" s="22"/>
       <c r="D201" s="23"/>
-    </row>
-    <row r="202" spans="2:6">
+      <c r="J201" s="23"/>
+    </row>
+    <row r="202" spans="2:10">
       <c r="B202" s="22"/>
       <c r="C202" s="22"/>
       <c r="D202" s="23"/>
-    </row>
-    <row r="203" spans="2:6">
+      <c r="J202" s="23"/>
+    </row>
+    <row r="203" spans="2:10">
       <c r="B203" s="22"/>
       <c r="C203" s="22"/>
       <c r="D203" s="23"/>
-    </row>
-    <row r="204" spans="2:6">
+      <c r="J203" s="23"/>
+    </row>
+    <row r="204" spans="2:10">
       <c r="B204" s="22"/>
       <c r="C204" s="22"/>
       <c r="D204" s="23"/>
-    </row>
-    <row r="205" spans="2:6">
+      <c r="J204" s="23"/>
+    </row>
+    <row r="205" spans="2:10">
       <c r="B205" s="22"/>
       <c r="C205" s="22"/>
       <c r="D205" s="23"/>
-    </row>
-    <row r="206" spans="2:6">
+      <c r="J205" s="23"/>
+    </row>
+    <row r="206" spans="2:10">
       <c r="B206" s="22"/>
       <c r="C206" s="22"/>
       <c r="D206" s="23"/>
-    </row>
-    <row r="207" spans="2:6">
+      <c r="J206" s="23"/>
+    </row>
+    <row r="207" spans="2:10">
       <c r="B207" s="22"/>
       <c r="C207" s="22"/>
       <c r="D207" s="23"/>
-    </row>
-    <row r="208" spans="2:6">
+      <c r="J207" s="23"/>
+    </row>
+    <row r="208" spans="2:10">
       <c r="B208" s="22"/>
       <c r="C208" s="22"/>
       <c r="D208" s="23"/>
-    </row>
-    <row r="209" spans="2:4">
+      <c r="J208" s="23"/>
+    </row>
+    <row r="209" spans="2:10">
       <c r="B209" s="22"/>
       <c r="C209" s="22"/>
       <c r="D209" s="23"/>
-    </row>
-    <row r="210" spans="2:4">
+      <c r="J209" s="23"/>
+    </row>
+    <row r="210" spans="2:10">
       <c r="B210" s="22"/>
       <c r="C210" s="22"/>
       <c r="D210" s="23"/>
-    </row>
-    <row r="211" spans="2:4">
+      <c r="J210" s="23"/>
+    </row>
+    <row r="211" spans="2:10">
       <c r="B211" s="22"/>
       <c r="C211" s="22"/>
       <c r="D211" s="23"/>
-    </row>
-    <row r="212" spans="2:4">
+      <c r="J211" s="23"/>
+    </row>
+    <row r="212" spans="2:10">
       <c r="B212" s="22"/>
       <c r="C212" s="22"/>
       <c r="D212" s="23"/>
-    </row>
-    <row r="213" spans="2:4">
+      <c r="J212" s="23"/>
+    </row>
+    <row r="213" spans="2:10">
       <c r="B213" s="22"/>
       <c r="C213" s="22"/>
       <c r="D213" s="23"/>
-    </row>
-    <row r="214" spans="2:4">
+      <c r="J213" s="23"/>
+    </row>
+    <row r="214" spans="2:10">
       <c r="B214" s="22"/>
       <c r="C214" s="22"/>
       <c r="D214" s="23"/>
-    </row>
-    <row r="215" spans="2:4">
+      <c r="J214" s="23"/>
+    </row>
+    <row r="215" spans="2:10">
       <c r="B215" s="22"/>
       <c r="C215" s="22"/>
       <c r="D215" s="23"/>
-    </row>
-    <row r="216" spans="2:4">
+      <c r="J215" s="23"/>
+    </row>
+    <row r="216" spans="2:10">
       <c r="B216" s="22"/>
       <c r="C216" s="22"/>
       <c r="D216" s="23"/>
-    </row>
-    <row r="217" spans="2:4">
+      <c r="J216" s="23"/>
+    </row>
+    <row r="217" spans="2:10">
       <c r="B217" s="22"/>
       <c r="C217" s="22"/>
       <c r="D217" s="23"/>
-    </row>
-    <row r="218" spans="2:4">
+      <c r="J217" s="23"/>
+    </row>
+    <row r="218" spans="2:10">
       <c r="B218" s="22"/>
       <c r="C218" s="22"/>
       <c r="D218" s="23"/>
-    </row>
-    <row r="219" spans="2:4">
+      <c r="J218" s="23"/>
+    </row>
+    <row r="219" spans="2:10">
       <c r="B219" s="22"/>
       <c r="C219" s="22"/>
       <c r="D219" s="23"/>
-    </row>
-    <row r="220" spans="2:4">
+      <c r="J219" s="23"/>
+    </row>
+    <row r="220" spans="2:10">
       <c r="B220" s="22"/>
       <c r="C220" s="22"/>
       <c r="D220" s="23"/>
-    </row>
-    <row r="221" spans="2:4">
+      <c r="J220" s="23"/>
+    </row>
+    <row r="221" spans="2:10">
       <c r="B221" s="22"/>
       <c r="C221" s="22"/>
       <c r="D221" s="23"/>
-    </row>
-    <row r="222" spans="2:4">
+      <c r="J221" s="23"/>
+    </row>
+    <row r="222" spans="2:10">
       <c r="B222" s="22"/>
       <c r="C222" s="22"/>
       <c r="D222" s="23"/>
-    </row>
-    <row r="223" spans="2:4">
+      <c r="J222" s="23"/>
+    </row>
+    <row r="223" spans="2:10">
       <c r="B223" s="22"/>
       <c r="C223" s="22"/>
       <c r="D223" s="23"/>
-    </row>
-    <row r="224" spans="2:4">
+      <c r="J223" s="23"/>
+    </row>
+    <row r="224" spans="2:10">
       <c r="B224" s="22"/>
       <c r="C224" s="22"/>
       <c r="D224" s="23"/>
-    </row>
-    <row r="225" spans="2:4">
+      <c r="J224" s="23"/>
+    </row>
+    <row r="225" spans="2:10">
       <c r="B225" s="22"/>
       <c r="C225" s="22"/>
       <c r="D225" s="23"/>
-    </row>
-    <row r="226" spans="2:4">
+      <c r="J225" s="23"/>
+    </row>
+    <row r="226" spans="2:10">
       <c r="B226" s="22"/>
       <c r="C226" s="22"/>
       <c r="D226" s="23"/>
-    </row>
-    <row r="227" spans="2:4">
+      <c r="J226" s="23"/>
+    </row>
+    <row r="227" spans="2:10">
       <c r="B227" s="22"/>
       <c r="C227" s="22"/>
       <c r="D227" s="23"/>
-    </row>
-    <row r="228" spans="2:4">
+      <c r="J227" s="23"/>
+    </row>
+    <row r="228" spans="2:10">
       <c r="B228" s="22"/>
       <c r="C228" s="22"/>
       <c r="D228" s="23"/>
-    </row>
-    <row r="229" spans="2:4">
+      <c r="J228" s="23"/>
+    </row>
+    <row r="229" spans="2:10">
       <c r="B229" s="22"/>
       <c r="C229" s="22"/>
       <c r="D229" s="23"/>
-    </row>
-    <row r="230" spans="2:4">
+      <c r="J229" s="23"/>
+    </row>
+    <row r="230" spans="2:10">
       <c r="B230" s="22"/>
       <c r="C230" s="22"/>
       <c r="D230" s="23"/>
-    </row>
-    <row r="231" spans="2:4">
+      <c r="J230" s="23"/>
+    </row>
+    <row r="231" spans="2:10">
       <c r="B231" s="22"/>
       <c r="C231" s="22"/>
       <c r="D231" s="23"/>
-    </row>
-    <row r="232" spans="2:4">
+      <c r="J231" s="23"/>
+    </row>
+    <row r="232" spans="2:10">
       <c r="B232" s="22"/>
       <c r="C232" s="22"/>
       <c r="D232" s="23"/>
-    </row>
-    <row r="233" spans="2:4">
+      <c r="J232" s="23"/>
+    </row>
+    <row r="233" spans="2:10">
       <c r="B233" s="22"/>
       <c r="C233" s="22"/>
       <c r="D233" s="23"/>
-    </row>
-    <row r="234" spans="2:4">
+      <c r="J233" s="23"/>
+    </row>
+    <row r="234" spans="2:10">
       <c r="B234" s="22"/>
       <c r="C234" s="22"/>
       <c r="D234" s="23"/>
-    </row>
-    <row r="235" spans="2:4">
+      <c r="J234" s="23"/>
+    </row>
+    <row r="235" spans="2:10">
       <c r="B235" s="22"/>
       <c r="C235" s="22"/>
       <c r="D235" s="23"/>
-    </row>
-    <row r="236" spans="2:4">
+      <c r="J235" s="23"/>
+    </row>
+    <row r="236" spans="2:10">
       <c r="B236" s="22"/>
       <c r="C236" s="22"/>
       <c r="D236" s="23"/>
-    </row>
-    <row r="237" spans="2:4">
+      <c r="J236" s="23"/>
+    </row>
+    <row r="237" spans="2:10">
       <c r="B237" s="22"/>
       <c r="C237" s="22"/>
       <c r="D237" s="23"/>
-    </row>
-    <row r="238" spans="2:4">
+      <c r="J237" s="23"/>
+    </row>
+    <row r="238" spans="2:10">
       <c r="B238" s="22"/>
       <c r="C238" s="22"/>
       <c r="D238" s="23"/>
-    </row>
-    <row r="239" spans="2:4">
+      <c r="J238" s="23"/>
+    </row>
+    <row r="239" spans="2:10">
       <c r="B239" s="22"/>
       <c r="C239" s="22"/>
       <c r="D239" s="23"/>
-    </row>
-    <row r="240" spans="2:4">
+      <c r="J239" s="23"/>
+    </row>
+    <row r="240" spans="2:10">
       <c r="B240" s="22"/>
       <c r="C240" s="22"/>
       <c r="D240" s="23"/>
-    </row>
-    <row r="241" spans="2:4">
+      <c r="J240" s="23"/>
+    </row>
+    <row r="241" spans="2:10">
       <c r="B241" s="22"/>
       <c r="C241" s="22"/>
       <c r="D241" s="23"/>
-    </row>
-    <row r="242" spans="2:4">
+      <c r="J241" s="23"/>
+    </row>
+    <row r="242" spans="2:10">
       <c r="B242" s="22"/>
       <c r="C242" s="22"/>
       <c r="D242" s="23"/>
-    </row>
-    <row r="243" spans="2:4">
+      <c r="J242" s="23"/>
+    </row>
+    <row r="243" spans="2:10">
       <c r="B243" s="22"/>
       <c r="C243" s="22"/>
       <c r="D243" s="23"/>
-    </row>
-    <row r="244" spans="2:4">
+      <c r="J243" s="23"/>
+    </row>
+    <row r="244" spans="2:10">
       <c r="B244" s="22"/>
       <c r="C244" s="22"/>
       <c r="D244" s="23"/>
-    </row>
-    <row r="245" spans="2:4">
+      <c r="J244" s="23"/>
+    </row>
+    <row r="245" spans="2:10">
       <c r="B245" s="22"/>
       <c r="C245" s="22"/>
       <c r="D245" s="23"/>
-    </row>
-    <row r="246" spans="2:4">
+      <c r="J245" s="23"/>
+    </row>
+    <row r="246" spans="2:10">
       <c r="B246" s="22"/>
       <c r="C246" s="22"/>
       <c r="D246" s="23"/>
-    </row>
-    <row r="247" spans="2:4">
+      <c r="J246" s="23"/>
+    </row>
+    <row r="247" spans="2:10">
       <c r="B247" s="22"/>
       <c r="C247" s="22"/>
       <c r="D247" s="23"/>
-    </row>
-    <row r="248" spans="2:4">
+      <c r="J247" s="23"/>
+    </row>
+    <row r="248" spans="2:10">
       <c r="B248" s="22"/>
       <c r="C248" s="22"/>
       <c r="D248" s="23"/>
-    </row>
-    <row r="249" spans="2:4">
+      <c r="J248" s="23"/>
+    </row>
+    <row r="249" spans="2:10">
       <c r="B249" s="22"/>
       <c r="C249" s="22"/>
       <c r="D249" s="23"/>
-    </row>
-    <row r="250" spans="2:4">
+      <c r="J249" s="23"/>
+    </row>
+    <row r="250" spans="2:10">
       <c r="B250" s="22"/>
       <c r="C250" s="22"/>
       <c r="D250" s="23"/>
-    </row>
-    <row r="251" spans="2:4">
+      <c r="J250" s="23"/>
+    </row>
+    <row r="251" spans="2:10">
       <c r="B251" s="22"/>
       <c r="C251" s="22"/>
       <c r="D251" s="23"/>
-    </row>
-    <row r="252" spans="2:4">
+      <c r="J251" s="23"/>
+    </row>
+    <row r="252" spans="2:10">
       <c r="B252" s="22"/>
       <c r="C252" s="22"/>
       <c r="D252" s="23"/>
-    </row>
-    <row r="253" spans="2:4">
+      <c r="J252" s="23"/>
+    </row>
+    <row r="253" spans="2:10">
       <c r="B253" s="22"/>
       <c r="C253" s="22"/>
       <c r="D253" s="23"/>
-    </row>
-    <row r="254" spans="2:4">
+      <c r="J253" s="23"/>
+    </row>
+    <row r="254" spans="2:10">
       <c r="B254" s="22"/>
       <c r="C254" s="22"/>
       <c r="D254" s="23"/>
-    </row>
-    <row r="255" spans="2:4">
+      <c r="J254" s="23"/>
+    </row>
+    <row r="255" spans="2:10">
       <c r="B255" s="22"/>
       <c r="C255" s="22"/>
       <c r="D255" s="23"/>
-    </row>
-    <row r="256" spans="2:4">
+      <c r="J255" s="23"/>
+    </row>
+    <row r="256" spans="2:10">
       <c r="B256" s="22"/>
       <c r="C256" s="22"/>
       <c r="D256" s="23"/>
-    </row>
-    <row r="257" spans="2:4">
+      <c r="J256" s="23"/>
+    </row>
+    <row r="257" spans="2:10">
       <c r="B257" s="22"/>
       <c r="C257" s="22"/>
       <c r="D257" s="23"/>
-    </row>
-    <row r="258" spans="2:4">
+      <c r="J257" s="23"/>
+    </row>
+    <row r="258" spans="2:10">
       <c r="B258" s="22"/>
       <c r="C258" s="22"/>
       <c r="D258" s="23"/>
-    </row>
-    <row r="259" spans="2:4">
+      <c r="J258" s="23"/>
+    </row>
+    <row r="259" spans="2:10">
       <c r="B259" s="22"/>
       <c r="C259" s="22"/>
       <c r="D259" s="23"/>
-    </row>
-    <row r="260" spans="2:4">
+      <c r="J259" s="23"/>
+    </row>
+    <row r="260" spans="2:10">
       <c r="B260" s="22"/>
       <c r="C260" s="22"/>
       <c r="D260" s="23"/>
-    </row>
-    <row r="261" spans="2:4">
+      <c r="J260" s="23"/>
+    </row>
+    <row r="261" spans="2:10">
       <c r="B261" s="22"/>
       <c r="C261" s="22"/>
       <c r="D261" s="23"/>
-    </row>
-    <row r="262" spans="2:4">
+      <c r="J261" s="23"/>
+    </row>
+    <row r="262" spans="2:10">
       <c r="B262" s="22"/>
       <c r="C262" s="22"/>
       <c r="D262" s="23"/>
-    </row>
-    <row r="263" spans="2:4">
+      <c r="J262" s="23"/>
+    </row>
+    <row r="263" spans="2:10">
       <c r="B263" s="22"/>
       <c r="C263" s="22"/>
       <c r="D263" s="23"/>
-    </row>
-    <row r="264" spans="2:4">
+      <c r="J263" s="23"/>
+    </row>
+    <row r="264" spans="2:10">
       <c r="B264" s="22"/>
       <c r="C264" s="22"/>
       <c r="D264" s="23"/>
-    </row>
-    <row r="265" spans="2:4">
+      <c r="J264" s="23"/>
+    </row>
+    <row r="265" spans="2:10">
       <c r="B265" s="22"/>
       <c r="C265" s="22"/>
       <c r="D265" s="23"/>
-    </row>
-    <row r="266" spans="2:4">
+      <c r="J265" s="23"/>
+    </row>
+    <row r="266" spans="2:10">
       <c r="B266" s="22"/>
       <c r="C266" s="22"/>
       <c r="D266" s="23"/>
-    </row>
-    <row r="267" spans="2:4">
+      <c r="J266" s="23"/>
+    </row>
+    <row r="267" spans="2:10">
       <c r="B267" s="22"/>
       <c r="C267" s="22"/>
       <c r="D267" s="23"/>
-    </row>
-    <row r="268" spans="2:4">
+      <c r="J267" s="23"/>
+    </row>
+    <row r="268" spans="2:10">
       <c r="B268" s="22"/>
       <c r="C268" s="22"/>
       <c r="D268" s="23"/>
-    </row>
-    <row r="269" spans="2:4">
+      <c r="J268" s="23"/>
+    </row>
+    <row r="269" spans="2:10">
       <c r="B269" s="22"/>
       <c r="C269" s="22"/>
       <c r="D269" s="23"/>
-    </row>
-    <row r="270" spans="2:4">
+      <c r="J269" s="23"/>
+    </row>
+    <row r="270" spans="2:10">
       <c r="B270" s="22"/>
       <c r="C270" s="22"/>
       <c r="D270" s="23"/>
-    </row>
-    <row r="271" spans="2:4">
+      <c r="J270" s="23"/>
+    </row>
+    <row r="271" spans="2:10">
       <c r="B271" s="22"/>
       <c r="C271" s="22"/>
       <c r="D271" s="23"/>
-    </row>
-    <row r="272" spans="2:4">
+      <c r="J271" s="23"/>
+    </row>
+    <row r="272" spans="2:10">
       <c r="B272" s="22"/>
       <c r="C272" s="22"/>
       <c r="D272" s="23"/>
-    </row>
-    <row r="273" spans="2:4">
+      <c r="J272" s="23"/>
+    </row>
+    <row r="273" spans="2:10">
       <c r="B273" s="22"/>
       <c r="C273" s="22"/>
       <c r="D273" s="23"/>
-    </row>
-    <row r="274" spans="2:4">
+      <c r="J273" s="23"/>
+    </row>
+    <row r="274" spans="2:10">
       <c r="B274" s="22"/>
       <c r="C274" s="22"/>
       <c r="D274" s="23"/>
-    </row>
-    <row r="275" spans="2:4">
+      <c r="J274" s="23"/>
+    </row>
+    <row r="275" spans="2:10">
       <c r="B275" s="22"/>
       <c r="C275" s="22"/>
       <c r="D275" s="23"/>
-    </row>
-    <row r="276" spans="2:4">
+      <c r="J275" s="23"/>
+    </row>
+    <row r="276" spans="2:10">
       <c r="B276" s="22"/>
       <c r="C276" s="22"/>
       <c r="D276" s="23"/>
-    </row>
-    <row r="277" spans="2:4">
+      <c r="J276" s="23"/>
+    </row>
+    <row r="277" spans="2:10">
       <c r="B277" s="22"/>
       <c r="C277" s="22"/>
       <c r="D277" s="23"/>
-    </row>
-    <row r="278" spans="2:4">
+      <c r="J277" s="23"/>
+    </row>
+    <row r="278" spans="2:10">
       <c r="B278" s="22"/>
       <c r="C278" s="22"/>
       <c r="D278" s="23"/>
-    </row>
-    <row r="279" spans="2:4">
+      <c r="J278" s="23"/>
+    </row>
+    <row r="279" spans="2:10">
       <c r="B279" s="22"/>
       <c r="C279" s="22"/>
       <c r="D279" s="23"/>
-    </row>
-    <row r="280" spans="2:4">
+      <c r="J279" s="23"/>
+    </row>
+    <row r="280" spans="2:10">
       <c r="B280" s="22"/>
       <c r="C280" s="22"/>
       <c r="D280" s="23"/>
-    </row>
-    <row r="281" spans="2:4">
+      <c r="J280" s="23"/>
+    </row>
+    <row r="281" spans="2:10">
       <c r="B281" s="22"/>
       <c r="C281" s="22"/>
       <c r="D281" s="23"/>
-    </row>
-    <row r="282" spans="2:4">
+      <c r="J281" s="23"/>
+    </row>
+    <row r="282" spans="2:10">
       <c r="B282" s="22"/>
       <c r="C282" s="22"/>
       <c r="D282" s="23"/>
-    </row>
-    <row r="283" spans="2:4">
+      <c r="J282" s="23"/>
+    </row>
+    <row r="283" spans="2:10">
       <c r="B283" s="22"/>
       <c r="C283" s="22"/>
       <c r="D283" s="23"/>
-    </row>
-    <row r="284" spans="2:4">
+      <c r="J283" s="23"/>
+    </row>
+    <row r="284" spans="2:10">
       <c r="B284" s="22"/>
       <c r="C284" s="22"/>
       <c r="D284" s="23"/>
-    </row>
-    <row r="285" spans="2:4">
+      <c r="J284" s="23"/>
+    </row>
+    <row r="285" spans="2:10">
       <c r="B285" s="22"/>
       <c r="C285" s="22"/>
       <c r="D285" s="23"/>
-    </row>
-    <row r="286" spans="2:4">
+      <c r="J285" s="23"/>
+    </row>
+    <row r="286" spans="2:10">
       <c r="B286" s="22"/>
       <c r="C286" s="22"/>
       <c r="D286" s="23"/>
-    </row>
-    <row r="287" spans="2:4">
+      <c r="J286" s="23"/>
+    </row>
+    <row r="287" spans="2:10">
       <c r="B287" s="22"/>
       <c r="C287" s="22"/>
       <c r="D287" s="23"/>
-    </row>
-    <row r="288" spans="2:4">
+      <c r="J287" s="23"/>
+    </row>
+    <row r="288" spans="2:10">
       <c r="B288" s="22"/>
       <c r="C288" s="22"/>
       <c r="D288" s="23"/>
-    </row>
-    <row r="289" spans="2:4">
+      <c r="J288" s="23"/>
+    </row>
+    <row r="289" spans="2:10">
       <c r="B289" s="22"/>
       <c r="C289" s="22"/>
       <c r="D289" s="23"/>
-    </row>
-    <row r="290" spans="2:4">
+      <c r="J289" s="23"/>
+    </row>
+    <row r="290" spans="2:10">
       <c r="B290" s="22"/>
       <c r="C290" s="22"/>
       <c r="D290" s="23"/>
-    </row>
-    <row r="291" spans="2:4">
+      <c r="J290" s="23"/>
+    </row>
+    <row r="291" spans="2:10">
       <c r="B291" s="22"/>
       <c r="C291" s="22"/>
       <c r="D291" s="23"/>
-    </row>
-    <row r="292" spans="2:4">
+      <c r="J291" s="23"/>
+    </row>
+    <row r="292" spans="2:10">
       <c r="B292" s="22"/>
       <c r="C292" s="22"/>
       <c r="D292" s="23"/>
-    </row>
-    <row r="293" spans="2:4">
+      <c r="J292" s="23"/>
+    </row>
+    <row r="293" spans="2:10">
       <c r="B293" s="22"/>
       <c r="C293" s="22"/>
       <c r="D293" s="23"/>
-    </row>
-    <row r="294" spans="2:4">
+      <c r="J293" s="23"/>
+    </row>
+    <row r="294" spans="2:10">
       <c r="B294" s="22"/>
       <c r="C294" s="22"/>
       <c r="D294" s="23"/>
-    </row>
-    <row r="295" spans="2:4">
+      <c r="J294" s="23"/>
+    </row>
+    <row r="295" spans="2:10">
       <c r="B295" s="22"/>
       <c r="C295" s="22"/>
       <c r="D295" s="23"/>
-    </row>
-    <row r="296" spans="2:4">
+      <c r="J295" s="23"/>
+    </row>
+    <row r="296" spans="2:10">
       <c r="B296" s="22"/>
       <c r="C296" s="22"/>
       <c r="D296" s="23"/>
-    </row>
-    <row r="297" spans="2:4">
+      <c r="J296" s="23"/>
+    </row>
+    <row r="297" spans="2:10">
       <c r="B297" s="22"/>
       <c r="C297" s="22"/>
       <c r="D297" s="23"/>
-    </row>
-    <row r="298" spans="2:4">
+      <c r="J297" s="23"/>
+    </row>
+    <row r="298" spans="2:10">
       <c r="B298" s="22"/>
       <c r="C298" s="22"/>
       <c r="D298" s="23"/>
-    </row>
-    <row r="299" spans="2:4">
+      <c r="J298" s="23"/>
+    </row>
+    <row r="299" spans="2:10">
       <c r="B299" s="22"/>
       <c r="C299" s="22"/>
       <c r="D299" s="23"/>
-    </row>
-    <row r="300" spans="2:4">
+      <c r="J299" s="23"/>
+    </row>
+    <row r="300" spans="2:10">
       <c r="B300" s="22"/>
       <c r="C300" s="22"/>
       <c r="D300" s="23"/>
+      <c r="J300" s="23"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D41:D72 D1:D38 D74:D1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  <conditionalFormatting sqref="D41:D72 D1:D38 D74:D109 D111:D1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41:J72 J1:J38 J74:J1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J73">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/信息表.xlsx
+++ b/data/信息表.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2023\0324asthmaregistry\asthmaapp0417\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92DEDC9-59B1-4B5E-A7D8-385E810057F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F27BDB-9214-446B-8CD7-B52980D55F79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12855" xr2:uid="{7176CB3D-DF68-4588-9408-3908D2C761DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="region" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$110</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="421">
   <si>
     <t>区域经理</t>
   </si>
@@ -312,9 +313,6 @@
     <t>江西省</t>
   </si>
   <si>
-    <t>萍乡市第一人民医院</t>
-  </si>
-  <si>
     <t>赣州市人民医院</t>
   </si>
   <si>
@@ -1216,6 +1214,84 @@
   </si>
   <si>
     <t>北京友谊医院</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>region1</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>重庆</t>
+  </si>
+  <si>
+    <t>广东</t>
+  </si>
+  <si>
+    <t>贵州</t>
+  </si>
+  <si>
+    <t>河北</t>
+  </si>
+  <si>
+    <t>河南</t>
+  </si>
+  <si>
+    <t>黑龙江</t>
+  </si>
+  <si>
+    <t>湖北</t>
+  </si>
+  <si>
+    <t>湖南</t>
+  </si>
+  <si>
+    <t>吉林</t>
+  </si>
+  <si>
+    <t>江苏</t>
+  </si>
+  <si>
+    <t>江西</t>
+  </si>
+  <si>
+    <t>辽宁</t>
+  </si>
+  <si>
+    <t>山东</t>
+  </si>
+  <si>
+    <t>山西</t>
+  </si>
+  <si>
+    <t>四川</t>
+  </si>
+  <si>
+    <t>云南</t>
+  </si>
+  <si>
+    <t>浙江</t>
+  </si>
+  <si>
+    <t>广西</t>
+  </si>
+  <si>
+    <t>内蒙古</t>
+  </si>
+  <si>
+    <t>新疆</t>
+  </si>
+  <si>
+    <t>萍乡市人民医院</t>
   </si>
 </sst>
 </file>
@@ -1907,16 +1983,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20076B4A-A81B-4D12-8B73-EBD4ED14E36F}">
-  <dimension ref="A1:J300"/>
+  <dimension ref="A1:J301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F113" sqref="F113"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" style="37" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="51.7109375" bestFit="1" customWidth="1"/>
@@ -1924,7 +2000,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1936,22 +2012,22 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>356</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1968,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F2" s="5">
         <v>1</v>
@@ -1977,10 +2053,10 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I2" t="s">
         <v>246</v>
-      </c>
-      <c r="I2" t="s">
-        <v>247</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>5</v>
@@ -2000,7 +2076,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F3" s="5">
         <v>1</v>
@@ -2026,7 +2102,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -2035,10 +2111,10 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
+        <v>247</v>
+      </c>
+      <c r="I4" t="s">
         <v>248</v>
-      </c>
-      <c r="I4" t="s">
-        <v>249</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>7</v>
@@ -2058,7 +2134,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -2067,13 +2143,13 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2090,7 +2166,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -2116,7 +2192,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
@@ -2125,10 +2201,10 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>10</v>
@@ -2148,7 +2224,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -2157,7 +2233,7 @@
         <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>11</v>
@@ -2177,7 +2253,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F9" s="5">
         <v>2</v>
@@ -2203,7 +2279,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F10" s="5">
         <v>2</v>
@@ -2212,10 +2288,10 @@
         <v>4</v>
       </c>
       <c r="H10" t="s">
+        <v>251</v>
+      </c>
+      <c r="I10" t="s">
         <v>252</v>
-      </c>
-      <c r="I10" t="s">
-        <v>253</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>13</v>
@@ -2235,7 +2311,7 @@
         <v>14</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F11" s="5">
         <v>2</v>
@@ -2244,10 +2320,10 @@
         <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>14</v>
@@ -2267,7 +2343,7 @@
         <v>16</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F12" s="5">
         <v>1</v>
@@ -2276,13 +2352,13 @@
         <v>15</v>
       </c>
       <c r="H12" t="s">
+        <v>254</v>
+      </c>
+      <c r="I12" t="s">
         <v>255</v>
       </c>
-      <c r="I12" t="s">
-        <v>256</v>
-      </c>
       <c r="J12" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2299,7 +2375,7 @@
         <v>17</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
@@ -2325,7 +2401,7 @@
         <v>18</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
@@ -2334,10 +2410,10 @@
         <v>15</v>
       </c>
       <c r="H14" t="s">
+        <v>256</v>
+      </c>
+      <c r="I14" t="s">
         <v>257</v>
-      </c>
-      <c r="I14" t="s">
-        <v>258</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>18</v>
@@ -2357,7 +2433,7 @@
         <v>19</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F15" s="5">
         <v>1</v>
@@ -2366,10 +2442,10 @@
         <v>15</v>
       </c>
       <c r="H15" t="s">
+        <v>258</v>
+      </c>
+      <c r="I15" t="s">
         <v>259</v>
-      </c>
-      <c r="I15" t="s">
-        <v>260</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>19</v>
@@ -2389,7 +2465,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F16" s="5">
         <v>1</v>
@@ -2398,10 +2474,10 @@
         <v>15</v>
       </c>
       <c r="H16" t="s">
+        <v>260</v>
+      </c>
+      <c r="I16" t="s">
         <v>261</v>
-      </c>
-      <c r="I16" t="s">
-        <v>262</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>20</v>
@@ -2415,25 +2491,25 @@
         <v>3</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F17" s="5">
         <v>2</v>
       </c>
       <c r="G17" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="H17" t="s">
         <v>263</v>
       </c>
-      <c r="H17" t="s">
-        <v>264</v>
-      </c>
       <c r="J17" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2444,25 +2520,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F18" s="5">
         <v>2</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2473,25 +2549,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F19" s="5">
         <v>2</v>
       </c>
       <c r="G19" s="37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2508,7 +2584,7 @@
         <v>25</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F20" s="5">
         <v>1</v>
@@ -2520,7 +2596,7 @@
         <v>24</v>
       </c>
       <c r="I20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>25</v>
@@ -2540,7 +2616,7 @@
         <v>26</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F21" s="5">
         <v>1</v>
@@ -2552,7 +2628,7 @@
         <v>24</v>
       </c>
       <c r="I21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>26</v>
@@ -2572,7 +2648,7 @@
         <v>27</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F22" s="5">
         <v>1</v>
@@ -2584,7 +2660,7 @@
         <v>24</v>
       </c>
       <c r="I22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>27</v>
@@ -2604,7 +2680,7 @@
         <v>28</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F23" s="5">
         <v>1</v>
@@ -2616,10 +2692,10 @@
         <v>24</v>
       </c>
       <c r="I23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2636,7 +2712,7 @@
         <v>29</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F24" s="5">
         <v>2</v>
@@ -2648,7 +2724,7 @@
         <v>24</v>
       </c>
       <c r="I24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>29</v>
@@ -2659,7 +2735,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>30</v>
@@ -2668,7 +2744,7 @@
         <v>31</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F25" s="5">
         <v>2</v>
@@ -2677,10 +2753,10 @@
         <v>30</v>
       </c>
       <c r="H25" t="s">
+        <v>271</v>
+      </c>
+      <c r="I25" t="s">
         <v>272</v>
-      </c>
-      <c r="I25" t="s">
-        <v>273</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>31</v>
@@ -2691,7 +2767,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>30</v>
@@ -2700,7 +2776,7 @@
         <v>32</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F26" s="5">
         <v>2</v>
@@ -2709,10 +2785,10 @@
         <v>30</v>
       </c>
       <c r="H26" t="s">
+        <v>271</v>
+      </c>
+      <c r="I26" t="s">
         <v>272</v>
-      </c>
-      <c r="I26" t="s">
-        <v>273</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>32</v>
@@ -2723,7 +2799,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>30</v>
@@ -2732,7 +2808,7 @@
         <v>33</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F27" s="5">
         <v>1</v>
@@ -2741,10 +2817,10 @@
         <v>30</v>
       </c>
       <c r="H27" t="s">
+        <v>273</v>
+      </c>
+      <c r="I27" t="s">
         <v>274</v>
-      </c>
-      <c r="I27" t="s">
-        <v>275</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>33</v>
@@ -2755,7 +2831,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>30</v>
@@ -2764,7 +2840,7 @@
         <v>34</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F28" s="5">
         <v>2</v>
@@ -2773,13 +2849,13 @@
         <v>30</v>
       </c>
       <c r="H28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I28" t="s">
         <v>276</v>
       </c>
-      <c r="I28" t="s">
-        <v>277</v>
-      </c>
       <c r="J28" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2787,7 +2863,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>30</v>
@@ -2796,7 +2872,7 @@
         <v>35</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F29" s="5">
         <v>2</v>
@@ -2805,10 +2881,10 @@
         <v>30</v>
       </c>
       <c r="H29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>35</v>
@@ -2819,7 +2895,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>30</v>
@@ -2828,7 +2904,7 @@
         <v>36</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F30" s="5">
         <v>1</v>
@@ -2837,7 +2913,7 @@
         <v>30</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2845,7 +2921,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>30</v>
@@ -2854,7 +2930,7 @@
         <v>37</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F31" s="5">
         <v>2</v>
@@ -2863,13 +2939,13 @@
         <v>30</v>
       </c>
       <c r="H31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2877,7 +2953,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>30</v>
@@ -2886,7 +2962,7 @@
         <v>38</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F32" s="5">
         <v>2</v>
@@ -2895,7 +2971,7 @@
         <v>30</v>
       </c>
       <c r="H32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>38</v>
@@ -2906,7 +2982,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>30</v>
@@ -2915,7 +2991,7 @@
         <v>39</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F33" s="5">
         <v>1</v>
@@ -2932,7 +3008,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>30</v>
@@ -2941,7 +3017,7 @@
         <v>40</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F34" s="5">
         <v>2</v>
@@ -2958,7 +3034,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>30</v>
@@ -2967,7 +3043,7 @@
         <v>41</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F35" s="5">
         <v>2</v>
@@ -2984,7 +3060,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>30</v>
@@ -2993,7 +3069,7 @@
         <v>42</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F36" s="5">
         <v>2</v>
@@ -3002,7 +3078,7 @@
         <v>30</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -3010,7 +3086,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>30</v>
@@ -3019,7 +3095,7 @@
         <v>43</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F37" s="5">
         <v>2</v>
@@ -3036,31 +3112,31 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>44</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F38" s="25">
         <v>2</v>
       </c>
       <c r="G38" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="H38" t="s">
         <v>281</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>282</v>
       </c>
-      <c r="I38" t="s">
-        <v>283</v>
-      </c>
       <c r="J38" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -3068,16 +3144,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F39" s="5">
         <v>2</v>
@@ -3086,10 +3162,10 @@
         <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -3097,16 +3173,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F40" s="26">
         <v>1</v>
@@ -3115,13 +3191,13 @@
         <v>45</v>
       </c>
       <c r="H40" t="s">
+        <v>284</v>
+      </c>
+      <c r="I40" t="s">
         <v>285</v>
       </c>
-      <c r="I40" t="s">
-        <v>286</v>
-      </c>
       <c r="J40" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -3129,7 +3205,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>45</v>
@@ -3138,7 +3214,7 @@
         <v>46</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F41" s="5">
         <v>2</v>
@@ -3147,13 +3223,13 @@
         <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I41" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -3161,7 +3237,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>45</v>
@@ -3170,7 +3246,7 @@
         <v>47</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F42" s="5">
         <v>1</v>
@@ -3179,13 +3255,13 @@
         <v>45</v>
       </c>
       <c r="H42" t="s">
+        <v>287</v>
+      </c>
+      <c r="I42" t="s">
         <v>288</v>
       </c>
-      <c r="I42" t="s">
-        <v>289</v>
-      </c>
       <c r="J42" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3193,7 +3269,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>48</v>
@@ -3202,7 +3278,7 @@
         <v>49</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F43" s="5">
         <v>2</v>
@@ -3211,13 +3287,13 @@
         <v>48</v>
       </c>
       <c r="H43" t="s">
+        <v>289</v>
+      </c>
+      <c r="I43" t="s">
         <v>290</v>
       </c>
-      <c r="I43" t="s">
-        <v>291</v>
-      </c>
       <c r="J43" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -3225,7 +3301,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>48</v>
@@ -3234,7 +3310,7 @@
         <v>50</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F44" s="5">
         <v>1</v>
@@ -3243,7 +3319,7 @@
         <v>48</v>
       </c>
       <c r="H44" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J44" s="8" t="s">
         <v>50</v>
@@ -3263,7 +3339,7 @@
         <v>53</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F45" s="5">
         <v>2</v>
@@ -3272,13 +3348,13 @@
         <v>52</v>
       </c>
       <c r="H45" t="s">
+        <v>291</v>
+      </c>
+      <c r="I45" t="s">
         <v>292</v>
       </c>
-      <c r="I45" t="s">
-        <v>293</v>
-      </c>
       <c r="J45" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -3295,7 +3371,7 @@
         <v>54</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F46" s="5">
         <v>2</v>
@@ -3304,13 +3380,13 @@
         <v>52</v>
       </c>
       <c r="H46" t="s">
+        <v>293</v>
+      </c>
+      <c r="I46" t="s">
         <v>294</v>
       </c>
-      <c r="I46" t="s">
-        <v>295</v>
-      </c>
       <c r="J46" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -3327,7 +3403,7 @@
         <v>55</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F47" s="5">
         <v>2</v>
@@ -3336,10 +3412,10 @@
         <v>52</v>
       </c>
       <c r="H47" t="s">
+        <v>293</v>
+      </c>
+      <c r="I47" t="s">
         <v>294</v>
-      </c>
-      <c r="I47" t="s">
-        <v>295</v>
       </c>
       <c r="J47" s="6" t="s">
         <v>55</v>
@@ -3359,7 +3435,7 @@
         <v>57</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F48" s="5">
         <v>2</v>
@@ -3385,7 +3461,7 @@
         <v>59</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F49" s="27">
         <v>2</v>
@@ -3394,7 +3470,7 @@
         <v>58</v>
       </c>
       <c r="H49" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J49" s="6" t="s">
         <v>59</v>
@@ -3414,7 +3490,7 @@
         <v>60</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F50" s="5">
         <v>2</v>
@@ -3423,13 +3499,13 @@
         <v>56</v>
       </c>
       <c r="H50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I50" t="s">
         <v>297</v>
       </c>
-      <c r="I50" t="s">
-        <v>298</v>
-      </c>
       <c r="J50" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -3446,7 +3522,7 @@
         <v>61</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F51" s="5">
         <v>2</v>
@@ -3472,7 +3548,7 @@
         <v>62</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F52" s="5">
         <v>2</v>
@@ -3481,10 +3557,10 @@
         <v>56</v>
       </c>
       <c r="H52" t="s">
+        <v>298</v>
+      </c>
+      <c r="I52" t="s">
         <v>299</v>
-      </c>
-      <c r="I52" t="s">
-        <v>300</v>
       </c>
       <c r="J52" s="6" t="s">
         <v>62</v>
@@ -3504,7 +3580,7 @@
         <v>63</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F53" s="5">
         <v>2</v>
@@ -3513,13 +3589,13 @@
         <v>56</v>
       </c>
       <c r="H53" t="s">
+        <v>300</v>
+      </c>
+      <c r="I53" t="s">
         <v>301</v>
       </c>
-      <c r="I53" t="s">
-        <v>302</v>
-      </c>
       <c r="J53" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -3536,7 +3612,7 @@
         <v>64</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F54" s="5">
         <v>2</v>
@@ -3545,10 +3621,10 @@
         <v>56</v>
       </c>
       <c r="H54" t="s">
+        <v>302</v>
+      </c>
+      <c r="I54" t="s">
         <v>303</v>
-      </c>
-      <c r="I54" t="s">
-        <v>304</v>
       </c>
       <c r="J54" s="6" t="s">
         <v>64</v>
@@ -3568,7 +3644,7 @@
         <v>65</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F55" s="5">
         <v>2</v>
@@ -3577,10 +3653,10 @@
         <v>56</v>
       </c>
       <c r="H55" t="s">
+        <v>304</v>
+      </c>
+      <c r="I55" t="s">
         <v>305</v>
-      </c>
-      <c r="I55" t="s">
-        <v>306</v>
       </c>
       <c r="J55" s="6" t="s">
         <v>65</v>
@@ -3600,7 +3676,7 @@
         <v>67</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F56" s="5">
         <v>2</v>
@@ -3609,10 +3685,10 @@
         <v>66</v>
       </c>
       <c r="H56" t="s">
+        <v>306</v>
+      </c>
+      <c r="I56" t="s">
         <v>307</v>
-      </c>
-      <c r="I56" t="s">
-        <v>308</v>
       </c>
       <c r="J56" s="6" t="s">
         <v>67</v>
@@ -3632,7 +3708,7 @@
         <v>69</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F57" s="5">
         <v>1</v>
@@ -3641,10 +3717,10 @@
         <v>68</v>
       </c>
       <c r="H57" t="s">
+        <v>308</v>
+      </c>
+      <c r="I57" t="s">
         <v>309</v>
-      </c>
-      <c r="I57" t="s">
-        <v>310</v>
       </c>
       <c r="J57" s="14" t="s">
         <v>69</v>
@@ -3664,7 +3740,7 @@
         <v>70</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F58" s="5">
         <v>1</v>
@@ -3673,10 +3749,10 @@
         <v>68</v>
       </c>
       <c r="H58" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3693,7 +3769,7 @@
         <v>71</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F59" s="5">
         <v>1</v>
@@ -3702,7 +3778,7 @@
         <v>68</v>
       </c>
       <c r="H59" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J59" s="15" t="s">
         <v>71</v>
@@ -3722,7 +3798,7 @@
         <v>72</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F60" s="5">
         <v>1</v>
@@ -3731,10 +3807,10 @@
         <v>68</v>
       </c>
       <c r="H60" t="s">
+        <v>311</v>
+      </c>
+      <c r="I60" t="s">
         <v>312</v>
-      </c>
-      <c r="I60" t="s">
-        <v>313</v>
       </c>
       <c r="J60" s="14" t="s">
         <v>72</v>
@@ -3754,7 +3830,7 @@
         <v>73</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F61" s="5">
         <v>1</v>
@@ -3763,10 +3839,10 @@
         <v>68</v>
       </c>
       <c r="H61" t="s">
+        <v>313</v>
+      </c>
+      <c r="I61" t="s">
         <v>314</v>
-      </c>
-      <c r="I61" t="s">
-        <v>315</v>
       </c>
       <c r="J61" s="6" t="s">
         <v>73</v>
@@ -3786,7 +3862,7 @@
         <v>74</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F62" s="5">
         <v>1</v>
@@ -3795,10 +3871,10 @@
         <v>68</v>
       </c>
       <c r="H62" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I62" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J62" s="15" t="s">
         <v>74</v>
@@ -3818,7 +3894,7 @@
         <v>76</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F63" s="5">
         <v>2</v>
@@ -3827,10 +3903,10 @@
         <v>75</v>
       </c>
       <c r="H63" t="s">
+        <v>315</v>
+      </c>
+      <c r="I63" t="s">
         <v>316</v>
-      </c>
-      <c r="I63" t="s">
-        <v>317</v>
       </c>
       <c r="J63" s="15" t="s">
         <v>76</v>
@@ -3850,7 +3926,7 @@
         <v>77</v>
       </c>
       <c r="E64" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F64" s="28">
         <v>2</v>
@@ -3859,7 +3935,7 @@
         <v>58</v>
       </c>
       <c r="H64" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J64" s="6" t="s">
         <v>77</v>
@@ -3879,7 +3955,7 @@
         <v>78</v>
       </c>
       <c r="E65" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F65" s="29">
         <v>2</v>
@@ -3905,7 +3981,7 @@
         <v>79</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F66" s="27">
         <v>2</v>
@@ -3931,7 +4007,7 @@
         <v>80</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F67" s="27">
         <v>2</v>
@@ -3940,10 +4016,10 @@
         <v>58</v>
       </c>
       <c r="H67" t="s">
+        <v>318</v>
+      </c>
+      <c r="I67" t="s">
         <v>319</v>
-      </c>
-      <c r="I67" t="s">
-        <v>320</v>
       </c>
       <c r="J67" s="15" t="s">
         <v>80</v>
@@ -3963,7 +4039,7 @@
         <v>81</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F68" s="27">
         <v>2</v>
@@ -3972,7 +4048,7 @@
         <v>58</v>
       </c>
       <c r="H68" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J68" s="15" t="s">
         <v>81</v>
@@ -3992,7 +4068,7 @@
         <v>82</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F69" s="27">
         <v>2</v>
@@ -4001,10 +4077,10 @@
         <v>58</v>
       </c>
       <c r="H69" t="s">
+        <v>318</v>
+      </c>
+      <c r="I69" t="s">
         <v>319</v>
-      </c>
-      <c r="I69" t="s">
-        <v>320</v>
       </c>
       <c r="J69" s="6" t="s">
         <v>82</v>
@@ -4024,7 +4100,7 @@
         <v>83</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F70" s="30">
         <v>2</v>
@@ -4050,7 +4126,7 @@
         <v>84</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F71" s="27">
         <v>2</v>
@@ -4059,7 +4135,7 @@
         <v>58</v>
       </c>
       <c r="H71" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J71" s="6" t="s">
         <v>84</v>
@@ -4079,7 +4155,7 @@
         <v>85</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F72" s="5">
         <v>2</v>
@@ -4088,10 +4164,10 @@
         <v>56</v>
       </c>
       <c r="H72" t="s">
+        <v>322</v>
+      </c>
+      <c r="I72" t="s">
         <v>323</v>
-      </c>
-      <c r="I72" t="s">
-        <v>324</v>
       </c>
       <c r="J72" s="6" t="s">
         <v>85</v>
@@ -4102,16 +4178,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F73" s="5">
         <v>1</v>
@@ -4120,13 +4196,13 @@
         <v>30</v>
       </c>
       <c r="H73" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I73" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="15.75">
@@ -4134,7 +4210,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>86</v>
@@ -4143,7 +4219,7 @@
         <v>87</v>
       </c>
       <c r="E74" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F74" s="35">
         <v>1</v>
@@ -4160,7 +4236,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>86</v>
@@ -4169,7 +4245,7 @@
         <v>88</v>
       </c>
       <c r="E75" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F75" s="35">
         <v>1</v>
@@ -4181,7 +4257,7 @@
         <v>86</v>
       </c>
       <c r="I75" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J75" s="6" t="s">
         <v>88</v>
@@ -4192,7 +4268,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>86</v>
@@ -4201,7 +4277,7 @@
         <v>89</v>
       </c>
       <c r="E76" s="31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F76" s="35">
         <v>1</v>
@@ -4210,7 +4286,7 @@
         <v>86</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="15.75">
@@ -4218,16 +4294,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>86</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E77" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F77" s="35">
         <v>1</v>
@@ -4236,7 +4312,7 @@
         <v>86</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="15.75">
@@ -4244,7 +4320,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>86</v>
@@ -4253,7 +4329,7 @@
         <v>90</v>
       </c>
       <c r="E78" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F78" s="35">
         <v>2</v>
@@ -4265,10 +4341,10 @@
         <v>86</v>
       </c>
       <c r="I78" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.75">
@@ -4276,7 +4352,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>91</v>
@@ -4285,7 +4361,7 @@
         <v>92</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F79" s="35">
         <v>2</v>
@@ -4302,16 +4378,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>93</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>94</v>
+        <v>420</v>
       </c>
       <c r="E80" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F80" s="35">
         <v>2</v>
@@ -4320,7 +4396,7 @@
         <v>93</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>94</v>
+        <v>420</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="15.75">
@@ -4328,16 +4404,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>93</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E81" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F81" s="35">
         <v>2</v>
@@ -4346,7 +4422,7 @@
         <v>93</v>
       </c>
       <c r="J81" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="15.75">
@@ -4354,16 +4430,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>93</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E82" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F82" s="35">
         <v>2</v>
@@ -4372,10 +4448,10 @@
         <v>93</v>
       </c>
       <c r="H82" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15.75">
@@ -4383,16 +4459,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>93</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E83" s="27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F83" s="35">
         <v>2</v>
@@ -4401,13 +4477,13 @@
         <v>93</v>
       </c>
       <c r="H83" t="s">
+        <v>327</v>
+      </c>
+      <c r="I83" t="s">
         <v>328</v>
       </c>
-      <c r="I83" t="s">
-        <v>329</v>
-      </c>
       <c r="J83" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="15.75">
@@ -4415,16 +4491,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>93</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E84" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F84" s="35">
         <v>2</v>
@@ -4433,7 +4509,7 @@
         <v>93</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="15.75">
@@ -4441,16 +4517,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>93</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E85" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F85" s="35">
         <v>2</v>
@@ -4459,10 +4535,10 @@
         <v>93</v>
       </c>
       <c r="H85" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="15.75">
@@ -4470,31 +4546,31 @@
         <v>85</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E86" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F86" s="35">
         <v>1</v>
       </c>
       <c r="G86" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H86" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I86" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="15.75">
@@ -4502,31 +4578,31 @@
         <v>86</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C87" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D87" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D87" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="E87" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F87" s="35">
         <v>1</v>
       </c>
       <c r="G87" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="H87" t="s">
+        <v>99</v>
+      </c>
+      <c r="I87" t="s">
+        <v>331</v>
+      </c>
+      <c r="J87" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="H87" t="s">
-        <v>100</v>
-      </c>
-      <c r="I87" t="s">
-        <v>332</v>
-      </c>
-      <c r="J87" s="6" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="15.75">
@@ -4534,25 +4610,25 @@
         <v>87</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E88" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F88" s="35">
         <v>1</v>
       </c>
       <c r="G88" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="15.75">
@@ -4560,25 +4636,25 @@
         <v>88</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E89" s="27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F89" s="35">
         <v>1</v>
       </c>
       <c r="G89" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J89" s="18" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.75">
@@ -4586,31 +4662,31 @@
         <v>89</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E90" s="27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F90" s="35">
         <v>1</v>
       </c>
       <c r="G90" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I90" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="15.75">
@@ -4618,31 +4694,31 @@
         <v>90</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E91" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F91" s="35">
         <v>2</v>
       </c>
       <c r="G91" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I91" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="15.75">
@@ -4650,28 +4726,28 @@
         <v>91</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C92" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D92" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D92" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="E92" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F92" s="35">
         <v>1</v>
       </c>
       <c r="G92" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H92" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.75">
@@ -4679,31 +4755,31 @@
         <v>92</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E93" s="31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F93" s="35">
         <v>1</v>
       </c>
       <c r="G93" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H93" t="s">
+        <v>335</v>
+      </c>
+      <c r="I93" t="s">
         <v>336</v>
       </c>
-      <c r="I93" t="s">
-        <v>337</v>
-      </c>
       <c r="J93" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="15.75">
@@ -4711,28 +4787,28 @@
         <v>93</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E94" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F94" s="35">
         <v>1</v>
       </c>
       <c r="G94" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H94" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="15.75">
@@ -4740,25 +4816,25 @@
         <v>94</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E95" s="27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F95" s="35">
         <v>1</v>
       </c>
       <c r="G95" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15.75">
@@ -4766,31 +4842,31 @@
         <v>95</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E96" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F96" s="36">
         <v>1</v>
       </c>
       <c r="G96" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H96" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I96" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="15.75">
@@ -4798,31 +4874,31 @@
         <v>96</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E97" s="27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F97" s="35">
         <v>2</v>
       </c>
       <c r="G97" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H97" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I97" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15.75">
@@ -4830,51 +4906,51 @@
         <v>97</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E98" s="27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F98" s="35">
         <v>2</v>
       </c>
       <c r="G98" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="15.75">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="19" t="s">
-        <v>113</v>
+      <c r="B99" s="16" t="s">
+        <v>243</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="F99" s="5">
-        <v>1</v>
+        <v>392</v>
+      </c>
+      <c r="E99" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="F99" s="34">
+        <v>2</v>
       </c>
       <c r="G99" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="J99" s="6" t="s">
-        <v>114</v>
+        <v>86</v>
+      </c>
+      <c r="J99" s="23" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -4882,16 +4958,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F100" s="5">
         <v>1</v>
@@ -4899,14 +4975,8 @@
       <c r="G100" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="H100" t="s">
-        <v>341</v>
-      </c>
-      <c r="I100" t="s">
-        <v>342</v>
-      </c>
       <c r="J100" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -4914,16 +4984,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F101" s="5">
         <v>1</v>
@@ -4932,13 +5002,13 @@
         <v>30</v>
       </c>
       <c r="H101" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="I101" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -4946,31 +5016,31 @@
         <v>101</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F102" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G102" s="37" t="s">
         <v>30</v>
       </c>
       <c r="H102" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I102" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -4978,25 +5048,31 @@
         <v>102</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D103" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="E103" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="F103" s="25">
+      <c r="D103" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F103" s="5">
         <v>2</v>
       </c>
       <c r="G103" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="J103" s="20" t="s">
-        <v>118</v>
+      <c r="H103" t="s">
+        <v>344</v>
+      </c>
+      <c r="I103" t="s">
+        <v>345</v>
+      </c>
+      <c r="J103" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -5004,25 +5080,25 @@
         <v>103</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C104" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D104" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="E104" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="F104" s="5">
+      <c r="D104" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E104" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="F104" s="25">
         <v>2</v>
       </c>
       <c r="G104" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="J104" s="15" t="s">
-        <v>119</v>
+      <c r="J104" s="20" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -5030,31 +5106,25 @@
         <v>104</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>238</v>
+        <v>30</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E105" s="33" t="s">
+        <v>236</v>
       </c>
       <c r="F105" s="5">
         <v>2</v>
       </c>
       <c r="G105" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="H105" t="s">
-        <v>347</v>
-      </c>
-      <c r="I105" t="s">
-        <v>348</v>
-      </c>
-      <c r="J105" s="6" t="s">
-        <v>388</v>
+        <v>30</v>
+      </c>
+      <c r="J105" s="15" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -5062,31 +5132,31 @@
         <v>105</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C106" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D106" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D106" s="15" t="s">
-        <v>129</v>
-      </c>
       <c r="E106" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F106" s="5">
         <v>2</v>
       </c>
       <c r="G106" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H106" t="s">
+        <v>346</v>
+      </c>
+      <c r="I106" t="s">
         <v>347</v>
       </c>
-      <c r="I106" t="s">
-        <v>349</v>
-      </c>
-      <c r="J106" s="15" t="s">
-        <v>389</v>
+      <c r="J106" s="6" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -5094,31 +5164,31 @@
         <v>106</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
+      </c>
+      <c r="D107" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F107" s="5">
         <v>2</v>
       </c>
       <c r="G107" s="37" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H107" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="I107" t="s">
-        <v>351</v>
-      </c>
-      <c r="J107" s="6" t="s">
-        <v>123</v>
+        <v>348</v>
+      </c>
+      <c r="J107" s="15" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -5126,28 +5196,31 @@
         <v>107</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C108" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D108" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D108" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="E108" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F108" s="5">
         <v>2</v>
       </c>
       <c r="G108" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="H108" t="s">
+        <v>349</v>
+      </c>
+      <c r="I108" t="s">
+        <v>350</v>
+      </c>
+      <c r="J108" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="H108" t="s">
-        <v>352</v>
-      </c>
-      <c r="J108" s="6" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -5155,63 +5228,58 @@
         <v>108</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F109" s="5">
         <v>2</v>
       </c>
       <c r="G109" s="37" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H109" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="15.75">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>86</v>
+      <c r="B110" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C110" s="21" t="s">
+        <v>124</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="E110" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="F110" s="34">
+        <v>125</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="F110" s="5">
         <v>2</v>
       </c>
       <c r="G110" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="J110" s="23" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="15.75">
-      <c r="B111" s="22"/>
-      <c r="C111" s="22"/>
-      <c r="D111" s="23"/>
-      <c r="E111" s="34"/>
-      <c r="F111" s="34"/>
-      <c r="J111" s="23"/>
+        <v>124</v>
+      </c>
+      <c r="H110" t="s">
+        <v>352</v>
+      </c>
+      <c r="J110" s="6" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="112" spans="1:10" ht="15.75">
       <c r="B112" s="22"/>
@@ -5917,10 +5985,12 @@
       <c r="F199" s="34"/>
       <c r="J199" s="23"/>
     </row>
-    <row r="200" spans="2:10">
+    <row r="200" spans="2:10" ht="15.75">
       <c r="B200" s="22"/>
       <c r="C200" s="22"/>
       <c r="D200" s="23"/>
+      <c r="E200" s="34"/>
+      <c r="F200" s="34"/>
       <c r="J200" s="23"/>
     </row>
     <row r="201" spans="2:10">
@@ -6523,14 +6593,20 @@
       <c r="D300" s="23"/>
       <c r="J300" s="23"/>
     </row>
+    <row r="301" spans="2:10">
+      <c r="B301" s="22"/>
+      <c r="C301" s="22"/>
+      <c r="D301" s="23"/>
+      <c r="J301" s="23"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D41:D72 D1:D38 D74:D109 D111:D1048576">
+  <conditionalFormatting sqref="D112:D1048576 D41:D72 D1:D38 D74:D98 D100:D110">
     <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J41:J72 J1:J38 J74:J1048576">
+  <conditionalFormatting sqref="J41:J72 J1:J38 J112:J1048576 J74:J110">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J73">
@@ -6539,4 +6615,272 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A492FE0D-72BA-49E2-A415-7594E7248E8E}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/信息表.xlsx
+++ b/data/信息表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2023\0324asthmaregistry\asthmaapp0417\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F27BDB-9214-446B-8CD7-B52980D55F79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EED29D-F32E-4F4B-BC6E-C298FFC8A9AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12855" xr2:uid="{7176CB3D-DF68-4588-9408-3908D2C761DA}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="region" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="579">
   <si>
     <t>区域经理</t>
   </si>
@@ -763,9 +763,6 @@
     <t>冯兴振</t>
   </si>
   <si>
-    <t>黄晓林</t>
-  </si>
-  <si>
     <t>武汉市</t>
   </si>
   <si>
@@ -787,9 +784,6 @@
     <t>襄阳市</t>
   </si>
   <si>
-    <t>蘘城区</t>
-  </si>
-  <si>
     <t>沙市区</t>
   </si>
   <si>
@@ -814,9 +808,6 @@
     <t>成都市</t>
   </si>
   <si>
-    <t>高新南区</t>
-  </si>
-  <si>
     <t>新疆维吾尔自治区</t>
   </si>
   <si>
@@ -826,12 +817,6 @@
     <t>乌鲁木齐市</t>
   </si>
   <si>
-    <t>喀什区</t>
-  </si>
-  <si>
-    <t>渝中区</t>
-  </si>
-  <si>
     <t>江津区</t>
   </si>
   <si>
@@ -889,9 +874,6 @@
     <t>南明区</t>
   </si>
   <si>
-    <t>延中社区</t>
-  </si>
-  <si>
     <t>遵义市</t>
   </si>
   <si>
@@ -904,9 +886,6 @@
     <t>五华区</t>
   </si>
   <si>
-    <t xml:space="preserve">郑州市 </t>
-  </si>
-  <si>
     <t>二七区</t>
   </si>
   <si>
@@ -976,9 +955,6 @@
     <t>明山区</t>
   </si>
   <si>
-    <t>呼伦贝尔市</t>
-  </si>
-  <si>
     <t>赛罕区</t>
   </si>
   <si>
@@ -988,9 +964,6 @@
     <t>青岛市</t>
   </si>
   <si>
-    <t>南区</t>
-  </si>
-  <si>
     <t>潍坊市</t>
   </si>
   <si>
@@ -1039,9 +1012,6 @@
     <t>杭州市</t>
   </si>
   <si>
-    <t>滨江区</t>
-  </si>
-  <si>
     <t>金华市</t>
   </si>
   <si>
@@ -1075,9 +1045,6 @@
     <t>新华区</t>
   </si>
   <si>
-    <t>桥西区</t>
-  </si>
-  <si>
     <t>齐齐哈尔市</t>
   </si>
   <si>
@@ -1292,13 +1259,520 @@
   </si>
   <si>
     <t>萍乡市人民医院</t>
+  </si>
+  <si>
+    <t>黄哓林</t>
+  </si>
+  <si>
+    <t>马潇枭</t>
+  </si>
+  <si>
+    <t>尹雯</t>
+  </si>
+  <si>
+    <t>朱传兵</t>
+  </si>
+  <si>
+    <t>鲁艳娇</t>
+  </si>
+  <si>
+    <t>祁姗姗</t>
+  </si>
+  <si>
+    <t>谷晓瑜</t>
+  </si>
+  <si>
+    <t>余园园</t>
+  </si>
+  <si>
+    <t>周好好</t>
+  </si>
+  <si>
+    <t>朱王婵</t>
+  </si>
+  <si>
+    <t>李运奎</t>
+  </si>
+  <si>
+    <t>彭海英</t>
+  </si>
+  <si>
+    <t>林芝</t>
+  </si>
+  <si>
+    <t>刘秀明</t>
+  </si>
+  <si>
+    <t>罗嘉</t>
+  </si>
+  <si>
+    <t>杨艺</t>
+  </si>
+  <si>
+    <t>西仁阿依·阿布来提</t>
+  </si>
+  <si>
+    <t>王文艺</t>
+  </si>
+  <si>
+    <t>迪力努尔·阿不力克木</t>
+  </si>
+  <si>
+    <t>何剑</t>
+  </si>
+  <si>
+    <t>胡德凤</t>
+  </si>
+  <si>
+    <t>黄利</t>
+  </si>
+  <si>
+    <t>刘湘</t>
+  </si>
+  <si>
+    <t>赵长婧</t>
+  </si>
+  <si>
+    <t>钟雪芳</t>
+  </si>
+  <si>
+    <t>蔡月娜</t>
+  </si>
+  <si>
+    <t>吴珍妮</t>
+  </si>
+  <si>
+    <t>谢灿辉</t>
+  </si>
+  <si>
+    <t>孙张雨</t>
+  </si>
+  <si>
+    <t>饶智诚</t>
+  </si>
+  <si>
+    <t>夏苹</t>
+  </si>
+  <si>
+    <t>黎月文</t>
+  </si>
+  <si>
+    <t>黄淑榆</t>
+  </si>
+  <si>
+    <t>田婧</t>
+  </si>
+  <si>
+    <t>张华芬</t>
+  </si>
+  <si>
+    <t>杨海玲</t>
+  </si>
+  <si>
+    <t>陈长荣</t>
+  </si>
+  <si>
+    <t>朱婷</t>
+  </si>
+  <si>
+    <t>于海智</t>
+  </si>
+  <si>
+    <t>徐有微</t>
+  </si>
+  <si>
+    <t>刘婷婷</t>
+  </si>
+  <si>
+    <t>韦秋琦</t>
+  </si>
+  <si>
+    <t>谭潇琼</t>
+  </si>
+  <si>
+    <t>李岳</t>
+  </si>
+  <si>
+    <t>杨建雅</t>
+  </si>
+  <si>
+    <t>雷佳慧</t>
+  </si>
+  <si>
+    <t>胡新月</t>
+  </si>
+  <si>
+    <t>张洁</t>
+  </si>
+  <si>
+    <t>杨儒于</t>
+  </si>
+  <si>
+    <t>喻佩</t>
+  </si>
+  <si>
+    <t>谭佳俊</t>
+  </si>
+  <si>
+    <t>尹格</t>
+  </si>
+  <si>
+    <t>张彩霞</t>
+  </si>
+  <si>
+    <t>徐进</t>
+  </si>
+  <si>
+    <t>朱思敏</t>
+  </si>
+  <si>
+    <t>陈晓平</t>
+  </si>
+  <si>
+    <t>杨茁</t>
+  </si>
+  <si>
+    <t>⾦明新</t>
+  </si>
+  <si>
+    <t>赵蓓蓓</t>
+  </si>
+  <si>
+    <t>杨旭</t>
+  </si>
+  <si>
+    <t>杨小娟</t>
+  </si>
+  <si>
+    <t>姚丽丽</t>
+  </si>
+  <si>
+    <t>李春丽</t>
+  </si>
+  <si>
+    <t>王琨</t>
+  </si>
+  <si>
+    <t>张小玲</t>
+  </si>
+  <si>
+    <t>吴珂</t>
+  </si>
+  <si>
+    <t>王嘉宁</t>
+  </si>
+  <si>
+    <t>张维慧</t>
+  </si>
+  <si>
+    <t>李鹏</t>
+  </si>
+  <si>
+    <t>卓思杰</t>
+  </si>
+  <si>
+    <t>何雅雯</t>
+  </si>
+  <si>
+    <t>韩春燕</t>
+  </si>
+  <si>
+    <t>李凌维</t>
+  </si>
+  <si>
+    <t>范明鑫</t>
+  </si>
+  <si>
+    <t>于风奎</t>
+  </si>
+  <si>
+    <t>段玉婷</t>
+  </si>
+  <si>
+    <t>乔云飞</t>
+  </si>
+  <si>
+    <t>沈湘波</t>
+  </si>
+  <si>
+    <t>邱日皇</t>
+  </si>
+  <si>
+    <t>欧阳国泉</t>
+  </si>
+  <si>
+    <t>陈淑云</t>
+  </si>
+  <si>
+    <t>徐艳</t>
+  </si>
+  <si>
+    <t>倪灏然</t>
+  </si>
+  <si>
+    <t>潘亦林</t>
+  </si>
+  <si>
+    <t>程梓晗</t>
+  </si>
+  <si>
+    <t>杜威</t>
+  </si>
+  <si>
+    <t>孜丽努尔·阿不都许库尔</t>
+  </si>
+  <si>
+    <t>徐镶怀</t>
+  </si>
+  <si>
+    <t>朱胜霞</t>
+  </si>
+  <si>
+    <t>杜旭菲</t>
+  </si>
+  <si>
+    <t>余岚</t>
+  </si>
+  <si>
+    <t>费丽霞</t>
+  </si>
+  <si>
+    <t>陈彬</t>
+  </si>
+  <si>
+    <t>邵京京</t>
+  </si>
+  <si>
+    <t>施盛乔</t>
+  </si>
+  <si>
+    <t>李云霄</t>
+  </si>
+  <si>
+    <t>黄惟彬</t>
+  </si>
+  <si>
+    <t>高洁</t>
+  </si>
+  <si>
+    <t>陈宇鸣</t>
+  </si>
+  <si>
+    <t>王洁</t>
+  </si>
+  <si>
+    <t>黄晓燕</t>
+  </si>
+  <si>
+    <t>元雪峰</t>
+  </si>
+  <si>
+    <t>董宏燕</t>
+  </si>
+  <si>
+    <t>姜云飞</t>
+  </si>
+  <si>
+    <t>郭玉峰</t>
+  </si>
+  <si>
+    <t>CRC签协议姓名</t>
+  </si>
+  <si>
+    <t>沈甜甜</t>
+  </si>
+  <si>
+    <t>陈玮贝</t>
+  </si>
+  <si>
+    <t>张晖</t>
+  </si>
+  <si>
+    <t>清远市</t>
+  </si>
+  <si>
+    <t>肇庆市</t>
+  </si>
+  <si>
+    <t>喀什地区</t>
+  </si>
+  <si>
+    <t>重庆城区</t>
+  </si>
+  <si>
+    <t>呼和浩特市</t>
+  </si>
+  <si>
+    <t>济南市</t>
+  </si>
+  <si>
+    <t>临沂市</t>
+  </si>
+  <si>
+    <t>北京城区</t>
+  </si>
+  <si>
+    <t>扬州市</t>
+  </si>
+  <si>
+    <t>萍乡市</t>
+  </si>
+  <si>
+    <t>赣州市</t>
+  </si>
+  <si>
+    <t>上海城区</t>
+  </si>
+  <si>
+    <t>湖州市</t>
+  </si>
+  <si>
+    <t>温州市</t>
+  </si>
+  <si>
+    <t>韶关市</t>
+  </si>
+  <si>
+    <t>江岸区</t>
+  </si>
+  <si>
+    <t>茅箭区</t>
+  </si>
+  <si>
+    <t>襄州区</t>
+  </si>
+  <si>
+    <t>樊城区</t>
+  </si>
+  <si>
+    <t>武侯区</t>
+  </si>
+  <si>
+    <t>高新区</t>
+  </si>
+  <si>
+    <t>天山区</t>
+  </si>
+  <si>
+    <t>海珠区</t>
+  </si>
+  <si>
+    <t>茂南区</t>
+  </si>
+  <si>
+    <t>白云区</t>
+  </si>
+  <si>
+    <t>清城区</t>
+  </si>
+  <si>
+    <t>端州区</t>
+  </si>
+  <si>
+    <t>天河区</t>
+  </si>
+  <si>
+    <t>南山区</t>
+  </si>
+  <si>
+    <t>七星关区</t>
+  </si>
+  <si>
+    <t>云岩区</t>
+  </si>
+  <si>
+    <t>西山区</t>
+  </si>
+  <si>
+    <t>开福区</t>
+  </si>
+  <si>
+    <t>东昌府区</t>
+  </si>
+  <si>
+    <t>于洪区</t>
+  </si>
+  <si>
+    <t>新抚区</t>
+  </si>
+  <si>
+    <t>芝罘区</t>
+  </si>
+  <si>
+    <t>奎文区</t>
+  </si>
+  <si>
+    <t>槐荫区</t>
+  </si>
+  <si>
+    <t>市北区</t>
+  </si>
+  <si>
+    <t>市南区</t>
+  </si>
+  <si>
+    <t>兰山区</t>
+  </si>
+  <si>
+    <t>东港区</t>
+  </si>
+  <si>
+    <t>大兴区</t>
+  </si>
+  <si>
+    <t>海淀区</t>
+  </si>
+  <si>
+    <t>广陵区</t>
+  </si>
+  <si>
+    <t>安源区</t>
+  </si>
+  <si>
+    <t>章贡区</t>
+  </si>
+  <si>
+    <t>袁州区</t>
+  </si>
+  <si>
+    <t>婺城区</t>
+  </si>
+  <si>
+    <t>吴兴区</t>
+  </si>
+  <si>
+    <t>鹿城区</t>
+  </si>
+  <si>
+    <t>西城区</t>
+  </si>
+  <si>
+    <t>罗湖区</t>
+  </si>
+  <si>
+    <t>万江街道</t>
+  </si>
+  <si>
+    <t>武江区</t>
+  </si>
+  <si>
+    <t>南岗区</t>
+  </si>
+  <si>
+    <t>迎泽区</t>
+  </si>
+  <si>
+    <t>昆山市第一人民医院</t>
+  </si>
+  <si>
+    <t>河南大学淮河医院</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1368,8 +1842,27 @@
       <name val="等线"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC10002"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Default"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1448,6 +1941,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC65A14"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -1515,7 +2014,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1628,11 +2127,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1983,10 +2523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20076B4A-A81B-4D12-8B73-EBD4ED14E36F}">
-  <dimension ref="A1:J301"/>
+  <dimension ref="A1:K301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1995,10 +2535,13 @@
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
     <col min="10" max="10" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>127</v>
       </c>
@@ -2018,19 +2561,22 @@
         <v>242</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>380</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2053,16 +2599,19 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I2" t="s">
         <v>245</v>
-      </c>
-      <c r="I2" t="s">
-        <v>246</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2084,11 +2633,20 @@
       <c r="G3" s="37" t="s">
         <v>4</v>
       </c>
+      <c r="H3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I3" t="s">
+        <v>534</v>
+      </c>
       <c r="J3" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2111,16 +2669,19 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
+        <v>246</v>
+      </c>
+      <c r="I4" t="s">
         <v>247</v>
-      </c>
-      <c r="I4" t="s">
-        <v>248</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2143,16 +2704,19 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>347</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2174,11 +2738,20 @@
       <c r="G6" s="37" t="s">
         <v>4</v>
       </c>
+      <c r="H6" t="s">
+        <v>244</v>
+      </c>
+      <c r="I6" t="s">
+        <v>248</v>
+      </c>
       <c r="J6" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2201,16 +2774,19 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2232,14 +2808,20 @@
       <c r="G8" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="H8" t="s">
-        <v>250</v>
+      <c r="H8" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>535</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2261,11 +2843,20 @@
       <c r="G9" s="37" t="s">
         <v>4</v>
       </c>
+      <c r="H9" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>536</v>
+      </c>
       <c r="J9" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" s="6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2287,17 +2878,20 @@
       <c r="G10" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="H10" t="s">
-        <v>251</v>
-      </c>
-      <c r="I10" t="s">
-        <v>252</v>
+      <c r="H10" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>537</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" s="6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2319,17 +2913,20 @@
       <c r="G11" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="H11" t="s">
-        <v>247</v>
-      </c>
-      <c r="I11" t="s">
-        <v>253</v>
+      <c r="H11" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>251</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2351,17 +2948,20 @@
       <c r="G12" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="H12" t="s">
-        <v>254</v>
-      </c>
-      <c r="I12" t="s">
-        <v>255</v>
+      <c r="H12" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>253</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>348</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2383,11 +2983,20 @@
       <c r="G13" s="37" t="s">
         <v>15</v>
       </c>
+      <c r="H13" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>538</v>
+      </c>
       <c r="J13" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" s="6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2409,17 +3018,20 @@
       <c r="G14" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="H14" t="s">
-        <v>256</v>
-      </c>
-      <c r="I14" t="s">
-        <v>257</v>
+      <c r="H14" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>255</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" s="6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2441,17 +3053,20 @@
       <c r="G15" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="H15" t="s">
-        <v>258</v>
-      </c>
-      <c r="I15" t="s">
-        <v>259</v>
+      <c r="H15" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>257</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2473,17 +3088,20 @@
       <c r="G16" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="H16" t="s">
-        <v>260</v>
-      </c>
-      <c r="I16" t="s">
-        <v>261</v>
+      <c r="H16" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>539</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2491,7 +3109,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>21</v>
@@ -2503,16 +3121,22 @@
         <v>2</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="H17" t="s">
-        <v>263</v>
+        <v>259</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>260</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>349</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2520,7 +3144,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>22</v>
@@ -2532,16 +3156,22 @@
         <v>2</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="H18" t="s">
-        <v>264</v>
+        <v>259</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>540</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>350</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2549,7 +3179,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>23</v>
@@ -2561,16 +3191,22 @@
         <v>2</v>
       </c>
       <c r="G19" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="H19" t="s">
-        <v>265</v>
+        <v>259</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="I19" s="37" t="s">
+        <v>260</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>351</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2592,17 +3228,20 @@
       <c r="G20" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="H20" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" t="s">
-        <v>266</v>
+      <c r="H20" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>264</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" s="39" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2624,17 +3263,20 @@
       <c r="G21" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="H21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" t="s">
-        <v>267</v>
+      <c r="H21" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="I21" s="37" t="s">
+        <v>262</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" s="6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2656,17 +3298,20 @@
       <c r="G22" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="H22" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" t="s">
-        <v>268</v>
+      <c r="H22" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="I22" s="37" t="s">
+        <v>263</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" s="6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2688,17 +3333,20 @@
       <c r="G23" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="H23" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" t="s">
-        <v>269</v>
+      <c r="H23" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="I23" s="37" t="s">
+        <v>264</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>352</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2720,22 +3368,25 @@
       <c r="G24" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="H24" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" t="s">
-        <v>270</v>
+      <c r="H24" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="I24" s="37" t="s">
+        <v>265</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" s="6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>244</v>
+        <v>410</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>30</v>
@@ -2752,22 +3403,25 @@
       <c r="G25" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="H25" t="s">
-        <v>271</v>
-      </c>
-      <c r="I25" t="s">
-        <v>272</v>
+      <c r="H25" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="I25" s="37" t="s">
+        <v>267</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25" s="6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>244</v>
+        <v>410</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>30</v>
@@ -2784,22 +3438,25 @@
       <c r="G26" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="H26" t="s">
-        <v>271</v>
-      </c>
-      <c r="I26" t="s">
-        <v>272</v>
+      <c r="H26" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="I26" s="37" t="s">
+        <v>267</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>244</v>
+        <v>410</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>30</v>
@@ -2816,22 +3473,25 @@
       <c r="G27" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="H27" t="s">
-        <v>273</v>
-      </c>
-      <c r="I27" t="s">
-        <v>274</v>
+      <c r="H27" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="I27" s="37" t="s">
+        <v>269</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>244</v>
+        <v>410</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>30</v>
@@ -2848,22 +3508,25 @@
       <c r="G28" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="H28" t="s">
-        <v>275</v>
-      </c>
-      <c r="I28" t="s">
-        <v>276</v>
+      <c r="H28" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="I28" s="37" t="s">
+        <v>271</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>353</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>244</v>
+        <v>410</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>30</v>
@@ -2880,22 +3543,25 @@
       <c r="G29" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="H29" t="s">
-        <v>273</v>
-      </c>
-      <c r="I29" t="s">
-        <v>277</v>
+      <c r="H29" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="I29" s="37" t="s">
+        <v>272</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29" s="6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>244</v>
+        <v>410</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>30</v>
@@ -2912,16 +3578,25 @@
       <c r="G30" s="37" t="s">
         <v>30</v>
       </c>
+      <c r="H30" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="I30" s="37" t="s">
+        <v>541</v>
+      </c>
       <c r="J30" s="8" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>354</v>
+      </c>
+      <c r="K30" s="40" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>244</v>
+        <v>410</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>30</v>
@@ -2938,22 +3613,25 @@
       <c r="G31" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="H31" t="s">
-        <v>273</v>
-      </c>
-      <c r="I31" t="s">
-        <v>278</v>
+      <c r="H31" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="I31" s="37" t="s">
+        <v>315</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>355</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>244</v>
+        <v>410</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>30</v>
@@ -2970,19 +3648,25 @@
       <c r="G32" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="H32" t="s">
-        <v>279</v>
+      <c r="H32" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="I32" s="37" t="s">
+        <v>542</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32" s="6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>244</v>
+        <v>410</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>30</v>
@@ -2999,16 +3683,25 @@
       <c r="G33" s="37" t="s">
         <v>30</v>
       </c>
+      <c r="H33" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="I33" s="37" t="s">
+        <v>543</v>
+      </c>
       <c r="J33" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>244</v>
+        <v>410</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>30</v>
@@ -3025,16 +3718,25 @@
       <c r="G34" s="37" t="s">
         <v>30</v>
       </c>
+      <c r="H34" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="I34" s="37" t="s">
+        <v>544</v>
+      </c>
       <c r="J34" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>244</v>
+        <v>410</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>30</v>
@@ -3051,16 +3753,25 @@
       <c r="G35" s="37" t="s">
         <v>30</v>
       </c>
+      <c r="H35" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="I35" s="37" t="s">
+        <v>545</v>
+      </c>
       <c r="J35" s="10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35" s="6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>244</v>
+        <v>410</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>30</v>
@@ -3077,16 +3788,25 @@
       <c r="G36" s="37" t="s">
         <v>30</v>
       </c>
+      <c r="H36" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="I36" s="37" t="s">
+        <v>546</v>
+      </c>
       <c r="J36" s="8" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>356</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>244</v>
+        <v>410</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>30</v>
@@ -3103,19 +3823,26 @@
       <c r="G37" s="37" t="s">
         <v>30</v>
       </c>
+      <c r="H37" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="I37" s="37" t="s">
+        <v>547</v>
+      </c>
       <c r="J37" s="8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37" s="40"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>244</v>
+        <v>410</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>44</v>
@@ -3127,24 +3854,27 @@
         <v>2</v>
       </c>
       <c r="G38" s="37" t="s">
-        <v>280</v>
-      </c>
-      <c r="H38" t="s">
-        <v>281</v>
-      </c>
-      <c r="I38" t="s">
-        <v>282</v>
+        <v>275</v>
+      </c>
+      <c r="H38" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="I38" s="37" t="s">
+        <v>277</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>357</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>244</v>
+        <v>410</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>45</v>
@@ -3161,19 +3891,25 @@
       <c r="G39" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H39" t="s">
-        <v>283</v>
+      <c r="H39" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="I39" s="37" t="s">
+        <v>548</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>358</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>244</v>
+        <v>410</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>45</v>
@@ -3190,22 +3926,25 @@
       <c r="G40" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H40" t="s">
-        <v>284</v>
-      </c>
-      <c r="I40" t="s">
-        <v>285</v>
+      <c r="H40" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="I40" s="37" t="s">
+        <v>280</v>
       </c>
       <c r="J40" s="12" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40" s="6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>244</v>
+        <v>410</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>45</v>
@@ -3222,22 +3961,25 @@
       <c r="G41" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H41" t="s">
-        <v>284</v>
-      </c>
-      <c r="I41" t="s">
-        <v>286</v>
+      <c r="H41" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="I41" s="37" t="s">
+        <v>549</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>359</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>244</v>
+        <v>410</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>45</v>
@@ -3254,22 +3996,25 @@
       <c r="G42" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H42" t="s">
-        <v>287</v>
-      </c>
-      <c r="I42" t="s">
-        <v>288</v>
+      <c r="H42" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="I42" s="37" t="s">
+        <v>282</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>360</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>244</v>
+        <v>410</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>48</v>
@@ -3286,22 +4031,25 @@
       <c r="G43" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="H43" t="s">
-        <v>289</v>
-      </c>
-      <c r="I43" t="s">
-        <v>290</v>
+      <c r="H43" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="I43" s="37" t="s">
+        <v>284</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>361</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>244</v>
+        <v>410</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>48</v>
@@ -3318,14 +4066,20 @@
       <c r="G44" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="H44" t="s">
-        <v>289</v>
+      <c r="H44" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="I44" s="37" t="s">
+        <v>550</v>
       </c>
       <c r="J44" s="8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3347,17 +4101,20 @@
       <c r="G45" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="H45" t="s">
-        <v>291</v>
-      </c>
-      <c r="I45" t="s">
-        <v>292</v>
+      <c r="H45" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="I45" s="37" t="s">
+        <v>285</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>362</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3379,17 +4136,20 @@
       <c r="G46" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="H46" t="s">
-        <v>293</v>
-      </c>
-      <c r="I46" t="s">
-        <v>294</v>
+      <c r="H46" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="I46" s="37" t="s">
+        <v>287</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>363</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3411,17 +4171,20 @@
       <c r="G47" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="H47" t="s">
-        <v>293</v>
-      </c>
-      <c r="I47" t="s">
-        <v>294</v>
+      <c r="H47" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="I47" s="37" t="s">
+        <v>287</v>
       </c>
       <c r="J47" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3443,11 +4206,20 @@
       <c r="G48" s="37" t="s">
         <v>56</v>
       </c>
+      <c r="H48" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="I48" s="37" t="s">
+        <v>551</v>
+      </c>
       <c r="J48" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="15.75">
+      <c r="K48" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15.75">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3469,14 +4241,20 @@
       <c r="G49" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="H49" t="s">
-        <v>295</v>
+      <c r="H49" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="I49" s="37" t="s">
+        <v>552</v>
       </c>
       <c r="J49" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3498,17 +4276,20 @@
       <c r="G50" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="H50" t="s">
-        <v>296</v>
-      </c>
-      <c r="I50" t="s">
-        <v>297</v>
+      <c r="H50" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="I50" s="37" t="s">
+        <v>290</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>364</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3530,11 +4311,20 @@
       <c r="G51" s="37" t="s">
         <v>56</v>
       </c>
+      <c r="H51" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="I51" s="37" t="s">
+        <v>551</v>
+      </c>
       <c r="J51" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51" s="6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3556,17 +4346,20 @@
       <c r="G52" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="H52" t="s">
-        <v>298</v>
-      </c>
-      <c r="I52" t="s">
-        <v>299</v>
+      <c r="H52" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="I52" s="37" t="s">
+        <v>292</v>
       </c>
       <c r="J52" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3588,17 +4381,20 @@
       <c r="G53" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="H53" t="s">
-        <v>300</v>
-      </c>
-      <c r="I53" t="s">
-        <v>301</v>
+      <c r="H53" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="I53" s="37" t="s">
+        <v>294</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>365</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3620,17 +4416,20 @@
       <c r="G54" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="H54" t="s">
-        <v>302</v>
-      </c>
-      <c r="I54" t="s">
-        <v>303</v>
+      <c r="H54" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="I54" s="37" t="s">
+        <v>296</v>
       </c>
       <c r="J54" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54" s="6" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3652,17 +4451,20 @@
       <c r="G55" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="H55" t="s">
-        <v>304</v>
-      </c>
-      <c r="I55" t="s">
-        <v>305</v>
+      <c r="H55" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="I55" s="37" t="s">
+        <v>298</v>
       </c>
       <c r="J55" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55" s="6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3684,17 +4486,20 @@
       <c r="G56" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H56" t="s">
-        <v>306</v>
-      </c>
-      <c r="I56" t="s">
-        <v>307</v>
+      <c r="H56" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="I56" s="37" t="s">
+        <v>300</v>
       </c>
       <c r="J56" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56" s="6" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3716,17 +4521,20 @@
       <c r="G57" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="H57" t="s">
-        <v>308</v>
-      </c>
-      <c r="I57" t="s">
-        <v>309</v>
+      <c r="H57" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="I57" s="37" t="s">
+        <v>302</v>
       </c>
       <c r="J57" s="14" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57" s="6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3748,14 +4556,20 @@
       <c r="G58" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="H58" t="s">
-        <v>308</v>
+      <c r="H58" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="I58" s="37" t="s">
+        <v>553</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>366</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3777,14 +4591,20 @@
       <c r="G59" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="H59" t="s">
-        <v>310</v>
+      <c r="H59" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="I59" s="37" t="s">
+        <v>554</v>
       </c>
       <c r="J59" s="15" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59" s="6" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3806,17 +4626,20 @@
       <c r="G60" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="H60" t="s">
-        <v>311</v>
-      </c>
-      <c r="I60" t="s">
-        <v>312</v>
+      <c r="H60" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="I60" s="37" t="s">
+        <v>305</v>
       </c>
       <c r="J60" s="14" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3838,17 +4661,20 @@
       <c r="G61" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="H61" t="s">
-        <v>313</v>
-      </c>
-      <c r="I61" t="s">
-        <v>314</v>
+      <c r="H61" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="I61" s="37" t="s">
+        <v>307</v>
       </c>
       <c r="J61" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61" s="6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3870,17 +4696,20 @@
       <c r="G62" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="H62" t="s">
-        <v>308</v>
-      </c>
-      <c r="I62" t="s">
-        <v>356</v>
+      <c r="H62" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="I62" s="37" t="s">
+        <v>345</v>
       </c>
       <c r="J62" s="15" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3902,17 +4731,20 @@
       <c r="G63" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="H63" t="s">
-        <v>315</v>
-      </c>
-      <c r="I63" t="s">
-        <v>316</v>
+      <c r="H63" s="37" t="s">
+        <v>523</v>
+      </c>
+      <c r="I63" s="37" t="s">
+        <v>308</v>
       </c>
       <c r="J63" s="15" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3934,14 +4766,20 @@
       <c r="G64" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="H64" t="s">
-        <v>317</v>
+      <c r="H64" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="I64" s="37" t="s">
+        <v>555</v>
       </c>
       <c r="J64" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" ht="15.75">
+      <c r="K64" s="41" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="15.75">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3963,11 +4801,20 @@
       <c r="G65" s="37" t="s">
         <v>58</v>
       </c>
+      <c r="H65" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="I65" s="37" t="s">
+        <v>556</v>
+      </c>
       <c r="J65" s="6" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" ht="15.75">
+      <c r="K65" s="6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="15.75">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3989,11 +4836,20 @@
       <c r="G66" s="37" t="s">
         <v>58</v>
       </c>
+      <c r="H66" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="I66" s="37" t="s">
+        <v>557</v>
+      </c>
       <c r="J66" s="6" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" ht="15.75">
+      <c r="K66" s="6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="15.75">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4015,17 +4871,20 @@
       <c r="G67" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="H67" t="s">
-        <v>318</v>
-      </c>
-      <c r="I67" t="s">
-        <v>319</v>
+      <c r="H67" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="I67" s="37" t="s">
+        <v>558</v>
       </c>
       <c r="J67" s="15" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" ht="15.75">
+      <c r="K67" s="6" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="15.75">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4047,14 +4906,20 @@
       <c r="G68" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="H68" t="s">
-        <v>320</v>
+      <c r="H68" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="I68" s="37" t="s">
+        <v>556</v>
       </c>
       <c r="J68" s="15" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" ht="15.75">
+      <c r="K68" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="15.75">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4076,17 +4941,20 @@
       <c r="G69" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="H69" t="s">
-        <v>318</v>
-      </c>
-      <c r="I69" t="s">
-        <v>319</v>
+      <c r="H69" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="I69" s="37" t="s">
+        <v>559</v>
       </c>
       <c r="J69" s="6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" ht="15.75">
+      <c r="K69" s="6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="15.75">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4108,11 +4976,20 @@
       <c r="G70" s="37" t="s">
         <v>58</v>
       </c>
+      <c r="H70" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="I70" s="37" t="s">
+        <v>560</v>
+      </c>
       <c r="J70" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" ht="15.75">
+      <c r="K70" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="15.75">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4134,14 +5011,20 @@
       <c r="G71" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="H71" t="s">
-        <v>321</v>
+      <c r="H71" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="I71" s="37" t="s">
+        <v>561</v>
       </c>
       <c r="J71" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71" s="6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4163,17 +5046,20 @@
       <c r="G72" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="H72" t="s">
-        <v>322</v>
-      </c>
-      <c r="I72" t="s">
-        <v>323</v>
+      <c r="H72" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="I72" s="37" t="s">
+        <v>314</v>
       </c>
       <c r="J72" s="6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72" s="6" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4195,17 +5081,20 @@
       <c r="G73" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="H73" t="s">
-        <v>273</v>
-      </c>
-      <c r="I73" t="s">
-        <v>324</v>
+      <c r="H73" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="I73" s="37" t="s">
+        <v>269</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="15.75">
+        <v>367</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="15.75">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4227,11 +5116,20 @@
       <c r="G74" s="37" t="s">
         <v>86</v>
       </c>
+      <c r="H74" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="I74" s="37" t="s">
+        <v>317</v>
+      </c>
       <c r="J74" s="6" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" ht="15.75">
+      <c r="K74" s="6" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="15.75">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4253,17 +5151,20 @@
       <c r="G75" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="H75" t="s">
-        <v>86</v>
-      </c>
-      <c r="I75" t="s">
-        <v>325</v>
+      <c r="H75" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="I75" s="37" t="s">
+        <v>316</v>
       </c>
       <c r="J75" s="6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" ht="15.75">
+      <c r="K75" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="15.75">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4285,11 +5186,20 @@
       <c r="G76" s="37" t="s">
         <v>86</v>
       </c>
+      <c r="H76" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="I76" s="37" t="s">
+        <v>562</v>
+      </c>
       <c r="J76" s="6" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="15.75">
+        <v>368</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="15.75">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4300,7 +5210,7 @@
         <v>86</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="E77" s="27" t="s">
         <v>209</v>
@@ -4311,11 +5221,20 @@
       <c r="G77" s="37" t="s">
         <v>86</v>
       </c>
+      <c r="H77" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="I77" s="37" t="s">
+        <v>563</v>
+      </c>
       <c r="J77" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="15.75">
+        <v>346</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="15.75">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4337,17 +5256,20 @@
       <c r="G78" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="H78" t="s">
-        <v>86</v>
-      </c>
-      <c r="I78" t="s">
-        <v>326</v>
+      <c r="H78" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="I78" s="37" t="s">
+        <v>317</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="15.75">
+        <v>369</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="15.75">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4369,11 +5291,20 @@
       <c r="G79" s="37" t="s">
         <v>91</v>
       </c>
+      <c r="H79" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="I79" s="37" t="s">
+        <v>564</v>
+      </c>
       <c r="J79" s="17" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" ht="15.75">
+      <c r="K79" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="15.75">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4384,7 +5315,7 @@
         <v>93</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="E80" s="27" t="s">
         <v>212</v>
@@ -4395,11 +5326,20 @@
       <c r="G80" s="37" t="s">
         <v>93</v>
       </c>
+      <c r="H80" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="I80" s="37" t="s">
+        <v>565</v>
+      </c>
       <c r="J80" s="6" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="15.75">
+        <v>409</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="15.75">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4421,11 +5361,20 @@
       <c r="G81" s="37" t="s">
         <v>93</v>
       </c>
+      <c r="H81" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="I81" s="37" t="s">
+        <v>566</v>
+      </c>
       <c r="J81" s="17" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" ht="15.75">
+      <c r="K81" s="6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="15.75">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4447,14 +5396,20 @@
       <c r="G82" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="H82" t="s">
-        <v>327</v>
+      <c r="H82" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="I82" s="37" t="s">
+        <v>319</v>
       </c>
       <c r="J82" s="6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" ht="15.75">
+      <c r="K82" s="6" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="15.75">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4476,17 +5431,20 @@
       <c r="G83" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="H83" t="s">
-        <v>327</v>
-      </c>
-      <c r="I83" t="s">
-        <v>328</v>
+      <c r="H83" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="I83" s="37" t="s">
+        <v>319</v>
       </c>
       <c r="J83" s="6" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" ht="15.75">
+      <c r="K83" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="15.75">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4508,11 +5466,20 @@
       <c r="G84" s="37" t="s">
         <v>93</v>
       </c>
+      <c r="H84" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="I84" s="37" t="s">
+        <v>319</v>
+      </c>
       <c r="J84" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" ht="15.75">
+      <c r="K84" s="6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="15.75">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4534,14 +5501,20 @@
       <c r="G85" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="H85" t="s">
-        <v>329</v>
+      <c r="H85" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="I85" s="37" t="s">
+        <v>567</v>
       </c>
       <c r="J85" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" ht="15.75">
+      <c r="K85" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="15.75">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4563,17 +5536,20 @@
       <c r="G86" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="H86" t="s">
-        <v>99</v>
-      </c>
-      <c r="I86" t="s">
-        <v>330</v>
+      <c r="H86" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="I86" s="37" t="s">
+        <v>321</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="15.75">
+        <v>370</v>
+      </c>
+      <c r="K86" s="42" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="15.75">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4595,17 +5571,20 @@
       <c r="G87" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="H87" t="s">
-        <v>99</v>
-      </c>
-      <c r="I87" t="s">
-        <v>331</v>
+      <c r="H87" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="I87" s="37" t="s">
+        <v>322</v>
       </c>
       <c r="J87" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" ht="15.75">
+      <c r="K87" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="15.75">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4627,11 +5606,20 @@
       <c r="G88" s="37" t="s">
         <v>99</v>
       </c>
+      <c r="H88" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="I88" s="37" t="s">
+        <v>323</v>
+      </c>
       <c r="J88" s="6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" ht="15.75">
+      <c r="K88" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="15.75">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4653,11 +5641,20 @@
       <c r="G89" s="37" t="s">
         <v>99</v>
       </c>
+      <c r="H89" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="I89" s="37" t="s">
+        <v>273</v>
+      </c>
       <c r="J89" s="18" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="15.75">
+        <v>371</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="15.75">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4679,17 +5676,20 @@
       <c r="G90" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="H90" t="s">
-        <v>99</v>
-      </c>
-      <c r="I90" t="s">
-        <v>332</v>
+      <c r="H90" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="I90" s="37" t="s">
+        <v>323</v>
       </c>
       <c r="J90" s="6" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" ht="15.75">
+      <c r="K90" s="43" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="15.75">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4711,17 +5711,20 @@
       <c r="G91" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="H91" t="s">
-        <v>99</v>
-      </c>
-      <c r="I91" t="s">
-        <v>333</v>
+      <c r="H91" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="I91" s="37" t="s">
+        <v>324</v>
       </c>
       <c r="J91" s="6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" ht="15.75">
+      <c r="K91" s="42" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="15.75">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4743,14 +5746,20 @@
       <c r="G92" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="H92" t="s">
-        <v>334</v>
+      <c r="H92" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="I92" s="37" t="s">
+        <v>325</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="15.75">
+        <v>372</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="15.75">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4772,17 +5781,20 @@
       <c r="G93" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="H93" t="s">
-        <v>335</v>
-      </c>
-      <c r="I93" t="s">
-        <v>336</v>
+      <c r="H93" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="I93" s="37" t="s">
+        <v>328</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="15.75">
+        <v>373</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="15.75">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4804,14 +5816,20 @@
       <c r="G94" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="H94" t="s">
-        <v>337</v>
+      <c r="H94" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="I94" s="37" t="s">
+        <v>568</v>
       </c>
       <c r="J94" s="6" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" ht="15.75">
+      <c r="K94" s="6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="15.75">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4833,11 +5851,20 @@
       <c r="G95" s="37" t="s">
         <v>104</v>
       </c>
+      <c r="H95" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="I95" s="37" t="s">
+        <v>569</v>
+      </c>
       <c r="J95" s="6" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" ht="15.75">
+      <c r="K95" s="6" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="15.75">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4859,17 +5886,20 @@
       <c r="G96" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="H96" t="s">
-        <v>335</v>
-      </c>
-      <c r="I96" t="s">
-        <v>338</v>
+      <c r="H96" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="I96" s="37" t="s">
+        <v>328</v>
       </c>
       <c r="J96" s="6" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" ht="15.75">
+      <c r="K96" s="6" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="15.75">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4891,17 +5921,20 @@
       <c r="G97" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="H97" t="s">
-        <v>335</v>
-      </c>
-      <c r="I97" t="s">
-        <v>339</v>
+      <c r="H97" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="I97" s="37" t="s">
+        <v>329</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="15.75">
+        <v>374</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="15.75">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4923,11 +5956,20 @@
       <c r="G98" s="37" t="s">
         <v>104</v>
       </c>
+      <c r="H98" s="37" t="s">
+        <v>532</v>
+      </c>
+      <c r="I98" s="37" t="s">
+        <v>570</v>
+      </c>
       <c r="J98" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="15.75">
+        <v>375</v>
+      </c>
+      <c r="K98" s="6" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="15.75">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4938,10 +5980,10 @@
         <v>86</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="E99" s="27" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="F99" s="34">
         <v>2</v>
@@ -4949,11 +5991,20 @@
       <c r="G99" s="37" t="s">
         <v>86</v>
       </c>
+      <c r="H99" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="I99" s="37" t="s">
+        <v>571</v>
+      </c>
       <c r="J99" s="23" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10">
+        <v>383</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4975,11 +6026,20 @@
       <c r="G100" s="37" t="s">
         <v>30</v>
       </c>
+      <c r="H100" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="I100" s="37" t="s">
+        <v>572</v>
+      </c>
       <c r="J100" s="6" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="K100" s="6" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5001,17 +6061,20 @@
       <c r="G101" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="H101" t="s">
-        <v>340</v>
-      </c>
-      <c r="I101" t="s">
-        <v>341</v>
+      <c r="H101" s="37" t="s">
+        <v>330</v>
+      </c>
+      <c r="I101" s="37" t="s">
+        <v>331</v>
       </c>
       <c r="J101" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="K101" s="6" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5033,17 +6096,20 @@
       <c r="G102" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="H102" t="s">
-        <v>342</v>
-      </c>
-      <c r="I102" t="s">
-        <v>343</v>
+      <c r="H102" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="I102" s="37" t="s">
+        <v>333</v>
       </c>
       <c r="J102" s="6" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="K102" s="6" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5065,17 +6131,20 @@
       <c r="G103" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="H103" t="s">
-        <v>344</v>
-      </c>
-      <c r="I103" t="s">
-        <v>345</v>
+      <c r="H103" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="I103" s="37" t="s">
+        <v>335</v>
       </c>
       <c r="J103" s="6" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="K103" s="6" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5097,11 +6166,20 @@
       <c r="G104" s="37" t="s">
         <v>30</v>
       </c>
+      <c r="H104" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="I104" s="37" t="s">
+        <v>573</v>
+      </c>
       <c r="J104" s="20" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="K104" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5123,11 +6201,20 @@
       <c r="G105" s="37" t="s">
         <v>30</v>
       </c>
+      <c r="H105" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="I105" s="37" t="s">
+        <v>574</v>
+      </c>
       <c r="J105" s="15" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="K105" s="6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5149,17 +6236,20 @@
       <c r="G106" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="H106" t="s">
-        <v>346</v>
-      </c>
-      <c r="I106" t="s">
-        <v>347</v>
+      <c r="H106" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="I106" s="37" t="s">
+        <v>337</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10">
+        <v>376</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5181,17 +6271,20 @@
       <c r="G107" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="H107" t="s">
-        <v>346</v>
-      </c>
-      <c r="I107" t="s">
-        <v>348</v>
+      <c r="H107" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="I107" s="37" t="s">
+        <v>337</v>
       </c>
       <c r="J107" s="15" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10">
+        <v>377</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5213,17 +6306,20 @@
       <c r="G108" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="H108" t="s">
-        <v>349</v>
-      </c>
-      <c r="I108" t="s">
-        <v>350</v>
+      <c r="H108" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="I108" s="37" t="s">
+        <v>339</v>
       </c>
       <c r="J108" s="6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="K108" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5245,14 +6341,20 @@
       <c r="G109" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="H109" t="s">
-        <v>351</v>
+      <c r="H109" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="I109" s="37" t="s">
+        <v>575</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10">
+        <v>378</v>
+      </c>
+      <c r="K109" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5274,718 +6376,828 @@
       <c r="G110" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="H110" t="s">
-        <v>352</v>
+      <c r="H110" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="I110" s="37" t="s">
+        <v>576</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="15.75">
-      <c r="B112" s="22"/>
+        <v>379</v>
+      </c>
+      <c r="K110" s="6" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="B111" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="J111" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="K111" s="44"/>
+    </row>
+    <row r="112" spans="1:11" ht="15.75">
+      <c r="B112" s="22" t="s">
+        <v>51</v>
+      </c>
       <c r="C112" s="22"/>
-      <c r="D112" s="23"/>
+      <c r="D112" s="23" t="s">
+        <v>578</v>
+      </c>
       <c r="E112" s="34"/>
       <c r="F112" s="34"/>
       <c r="J112" s="23"/>
-    </row>
-    <row r="113" spans="2:10" ht="15.75">
+      <c r="K112" s="44"/>
+    </row>
+    <row r="113" spans="2:11" ht="15.75">
       <c r="B113" s="22"/>
       <c r="C113" s="22"/>
       <c r="D113" s="23"/>
       <c r="E113" s="34"/>
       <c r="F113" s="34"/>
       <c r="J113" s="23"/>
-    </row>
-    <row r="114" spans="2:10" ht="15.75">
+      <c r="K113" s="44"/>
+    </row>
+    <row r="114" spans="2:11" ht="15.75">
       <c r="B114" s="22"/>
       <c r="C114" s="22"/>
       <c r="D114" s="23"/>
       <c r="E114" s="34"/>
       <c r="F114" s="34"/>
       <c r="J114" s="23"/>
-    </row>
-    <row r="115" spans="2:10" ht="15.75">
+      <c r="K114" s="23"/>
+    </row>
+    <row r="115" spans="2:11" ht="15.75">
       <c r="B115" s="22"/>
       <c r="C115" s="22"/>
       <c r="D115" s="23"/>
       <c r="E115" s="34"/>
       <c r="F115" s="34"/>
       <c r="J115" s="23"/>
-    </row>
-    <row r="116" spans="2:10" ht="15.75">
+      <c r="K115" s="23"/>
+    </row>
+    <row r="116" spans="2:11" ht="15.75">
       <c r="B116" s="22"/>
       <c r="C116" s="22"/>
       <c r="D116" s="23"/>
       <c r="E116" s="34"/>
       <c r="F116" s="34"/>
       <c r="J116" s="23"/>
-    </row>
-    <row r="117" spans="2:10" ht="15.75">
+      <c r="K116" s="23"/>
+    </row>
+    <row r="117" spans="2:11" ht="15.75">
       <c r="B117" s="22"/>
       <c r="C117" s="22"/>
       <c r="D117" s="23"/>
       <c r="E117" s="34"/>
       <c r="F117" s="34"/>
       <c r="J117" s="23"/>
-    </row>
-    <row r="118" spans="2:10" ht="15.75">
+      <c r="K117" s="23"/>
+    </row>
+    <row r="118" spans="2:11" ht="15.75">
       <c r="B118" s="22"/>
       <c r="C118" s="22"/>
       <c r="D118" s="23"/>
       <c r="E118" s="34"/>
       <c r="F118" s="34"/>
       <c r="J118" s="23"/>
-    </row>
-    <row r="119" spans="2:10" ht="15.75">
+      <c r="K118" s="23"/>
+    </row>
+    <row r="119" spans="2:11" ht="15.75">
       <c r="B119" s="22"/>
       <c r="C119" s="22"/>
       <c r="D119" s="23"/>
       <c r="E119" s="34"/>
       <c r="F119" s="34"/>
       <c r="J119" s="23"/>
-    </row>
-    <row r="120" spans="2:10" ht="15.75">
+      <c r="K119" s="23"/>
+    </row>
+    <row r="120" spans="2:11" ht="15.75">
       <c r="B120" s="22"/>
       <c r="C120" s="22"/>
       <c r="D120" s="23"/>
       <c r="E120" s="34"/>
       <c r="F120" s="34"/>
       <c r="J120" s="23"/>
-    </row>
-    <row r="121" spans="2:10" ht="15.75">
+      <c r="K120" s="23"/>
+    </row>
+    <row r="121" spans="2:11" ht="15.75">
       <c r="B121" s="22"/>
       <c r="C121" s="22"/>
       <c r="D121" s="23"/>
       <c r="E121" s="34"/>
       <c r="F121" s="34"/>
       <c r="J121" s="23"/>
-    </row>
-    <row r="122" spans="2:10" ht="15.75">
+      <c r="K121" s="23"/>
+    </row>
+    <row r="122" spans="2:11" ht="15.75">
       <c r="B122" s="22"/>
       <c r="C122" s="22"/>
       <c r="D122" s="23"/>
       <c r="E122" s="34"/>
       <c r="F122" s="34"/>
       <c r="J122" s="23"/>
-    </row>
-    <row r="123" spans="2:10" ht="15.75">
+      <c r="K122" s="23"/>
+    </row>
+    <row r="123" spans="2:11" ht="15.75">
       <c r="B123" s="22"/>
       <c r="C123" s="22"/>
       <c r="D123" s="23"/>
       <c r="E123" s="34"/>
       <c r="F123" s="34"/>
       <c r="J123" s="23"/>
-    </row>
-    <row r="124" spans="2:10" ht="15.75">
+      <c r="K123" s="23"/>
+    </row>
+    <row r="124" spans="2:11" ht="15.75">
       <c r="B124" s="22"/>
       <c r="C124" s="22"/>
       <c r="D124" s="23"/>
       <c r="E124" s="34"/>
       <c r="F124" s="34"/>
       <c r="J124" s="23"/>
-    </row>
-    <row r="125" spans="2:10" ht="15.75">
+      <c r="K124" s="23"/>
+    </row>
+    <row r="125" spans="2:11" ht="15.75">
       <c r="B125" s="22"/>
       <c r="C125" s="22"/>
       <c r="D125" s="23"/>
       <c r="E125" s="34"/>
       <c r="F125" s="34"/>
       <c r="J125" s="23"/>
-    </row>
-    <row r="126" spans="2:10" ht="15.75">
+      <c r="K125" s="23"/>
+    </row>
+    <row r="126" spans="2:11" ht="15.75">
       <c r="B126" s="22"/>
       <c r="C126" s="22"/>
       <c r="D126" s="23"/>
       <c r="E126" s="34"/>
       <c r="F126" s="34"/>
       <c r="J126" s="23"/>
-    </row>
-    <row r="127" spans="2:10" ht="15.75">
+      <c r="K126" s="23"/>
+    </row>
+    <row r="127" spans="2:11" ht="15.75">
       <c r="B127" s="22"/>
       <c r="C127" s="22"/>
       <c r="D127" s="23"/>
       <c r="E127" s="34"/>
       <c r="F127" s="34"/>
       <c r="J127" s="23"/>
-    </row>
-    <row r="128" spans="2:10" ht="15.75">
+      <c r="K127" s="23"/>
+    </row>
+    <row r="128" spans="2:11" ht="15.75">
       <c r="B128" s="22"/>
       <c r="C128" s="22"/>
       <c r="D128" s="23"/>
       <c r="E128" s="34"/>
       <c r="F128" s="34"/>
       <c r="J128" s="23"/>
-    </row>
-    <row r="129" spans="2:10" ht="15.75">
+      <c r="K128" s="23"/>
+    </row>
+    <row r="129" spans="2:11" ht="15.75">
       <c r="B129" s="22"/>
       <c r="C129" s="22"/>
       <c r="D129" s="23"/>
       <c r="E129" s="34"/>
       <c r="F129" s="34"/>
       <c r="J129" s="23"/>
-    </row>
-    <row r="130" spans="2:10" ht="15.75">
+      <c r="K129" s="23"/>
+    </row>
+    <row r="130" spans="2:11" ht="15.75">
       <c r="B130" s="22"/>
       <c r="C130" s="22"/>
       <c r="D130" s="23"/>
       <c r="E130" s="34"/>
       <c r="F130" s="34"/>
       <c r="J130" s="23"/>
-    </row>
-    <row r="131" spans="2:10" ht="15.75">
+      <c r="K130" s="23"/>
+    </row>
+    <row r="131" spans="2:11" ht="15.75">
       <c r="B131" s="22"/>
       <c r="C131" s="22"/>
       <c r="D131" s="23"/>
       <c r="E131" s="34"/>
       <c r="F131" s="34"/>
       <c r="J131" s="23"/>
-    </row>
-    <row r="132" spans="2:10" ht="15.75">
+      <c r="K131" s="23"/>
+    </row>
+    <row r="132" spans="2:11" ht="15.75">
       <c r="B132" s="22"/>
       <c r="C132" s="22"/>
       <c r="D132" s="23"/>
       <c r="E132" s="34"/>
       <c r="F132" s="34"/>
       <c r="J132" s="23"/>
-    </row>
-    <row r="133" spans="2:10" ht="15.75">
+      <c r="K132" s="23"/>
+    </row>
+    <row r="133" spans="2:11" ht="15.75">
       <c r="B133" s="22"/>
       <c r="C133" s="22"/>
       <c r="D133" s="23"/>
       <c r="E133" s="34"/>
       <c r="F133" s="34"/>
       <c r="J133" s="23"/>
-    </row>
-    <row r="134" spans="2:10" ht="15.75">
+      <c r="K133" s="23"/>
+    </row>
+    <row r="134" spans="2:11" ht="15.75">
       <c r="B134" s="22"/>
       <c r="C134" s="22"/>
       <c r="D134" s="23"/>
       <c r="E134" s="34"/>
       <c r="F134" s="34"/>
       <c r="J134" s="23"/>
-    </row>
-    <row r="135" spans="2:10" ht="15.75">
+      <c r="K134" s="23"/>
+    </row>
+    <row r="135" spans="2:11" ht="15.75">
       <c r="B135" s="22"/>
       <c r="C135" s="22"/>
       <c r="D135" s="23"/>
       <c r="E135" s="34"/>
       <c r="F135" s="34"/>
       <c r="J135" s="23"/>
-    </row>
-    <row r="136" spans="2:10" ht="15.75">
+      <c r="K135" s="23"/>
+    </row>
+    <row r="136" spans="2:11" ht="15.75">
       <c r="B136" s="22"/>
       <c r="C136" s="22"/>
       <c r="D136" s="23"/>
       <c r="E136" s="34"/>
       <c r="F136" s="34"/>
       <c r="J136" s="23"/>
-    </row>
-    <row r="137" spans="2:10" ht="15.75">
+      <c r="K136" s="23"/>
+    </row>
+    <row r="137" spans="2:11" ht="15.75">
       <c r="B137" s="22"/>
       <c r="C137" s="22"/>
       <c r="D137" s="23"/>
       <c r="E137" s="34"/>
       <c r="F137" s="34"/>
       <c r="J137" s="23"/>
-    </row>
-    <row r="138" spans="2:10" ht="15.75">
+      <c r="K137" s="23"/>
+    </row>
+    <row r="138" spans="2:11" ht="15.75">
       <c r="B138" s="22"/>
       <c r="C138" s="22"/>
       <c r="D138" s="23"/>
       <c r="E138" s="34"/>
       <c r="F138" s="34"/>
       <c r="J138" s="23"/>
-    </row>
-    <row r="139" spans="2:10" ht="15.75">
+      <c r="K138" s="23"/>
+    </row>
+    <row r="139" spans="2:11" ht="15.75">
       <c r="B139" s="22"/>
       <c r="C139" s="22"/>
       <c r="D139" s="23"/>
       <c r="E139" s="34"/>
       <c r="F139" s="34"/>
       <c r="J139" s="23"/>
-    </row>
-    <row r="140" spans="2:10" ht="15.75">
+      <c r="K139" s="23"/>
+    </row>
+    <row r="140" spans="2:11" ht="15.75">
       <c r="B140" s="22"/>
       <c r="C140" s="22"/>
       <c r="D140" s="23"/>
       <c r="E140" s="34"/>
       <c r="F140" s="34"/>
       <c r="J140" s="23"/>
-    </row>
-    <row r="141" spans="2:10" ht="15.75">
+      <c r="K140" s="23"/>
+    </row>
+    <row r="141" spans="2:11" ht="15.75">
       <c r="B141" s="22"/>
       <c r="C141" s="22"/>
       <c r="D141" s="23"/>
       <c r="E141" s="34"/>
       <c r="F141" s="34"/>
       <c r="J141" s="23"/>
-    </row>
-    <row r="142" spans="2:10" ht="15.75">
+      <c r="K141" s="23"/>
+    </row>
+    <row r="142" spans="2:11" ht="15.75">
       <c r="B142" s="22"/>
       <c r="C142" s="22"/>
       <c r="D142" s="23"/>
       <c r="E142" s="34"/>
       <c r="F142" s="34"/>
       <c r="J142" s="23"/>
-    </row>
-    <row r="143" spans="2:10" ht="15.75">
+      <c r="K142" s="23"/>
+    </row>
+    <row r="143" spans="2:11" ht="15.75">
       <c r="B143" s="22"/>
       <c r="C143" s="22"/>
       <c r="D143" s="23"/>
       <c r="E143" s="34"/>
       <c r="F143" s="34"/>
       <c r="J143" s="23"/>
-    </row>
-    <row r="144" spans="2:10" ht="15.75">
+      <c r="K143" s="23"/>
+    </row>
+    <row r="144" spans="2:11" ht="15.75">
       <c r="B144" s="22"/>
       <c r="C144" s="22"/>
       <c r="D144" s="23"/>
       <c r="E144" s="34"/>
       <c r="F144" s="34"/>
       <c r="J144" s="23"/>
-    </row>
-    <row r="145" spans="2:10" ht="15.75">
+      <c r="K144" s="23"/>
+    </row>
+    <row r="145" spans="2:11" ht="15.75">
       <c r="B145" s="22"/>
       <c r="C145" s="22"/>
       <c r="D145" s="23"/>
       <c r="E145" s="34"/>
       <c r="F145" s="34"/>
       <c r="J145" s="23"/>
-    </row>
-    <row r="146" spans="2:10" ht="15.75">
+      <c r="K145" s="23"/>
+    </row>
+    <row r="146" spans="2:11" ht="15.75">
       <c r="B146" s="22"/>
       <c r="C146" s="22"/>
       <c r="D146" s="23"/>
       <c r="E146" s="34"/>
       <c r="F146" s="34"/>
       <c r="J146" s="23"/>
-    </row>
-    <row r="147" spans="2:10" ht="15.75">
+      <c r="K146" s="23"/>
+    </row>
+    <row r="147" spans="2:11" ht="15.75">
       <c r="B147" s="22"/>
       <c r="C147" s="22"/>
       <c r="D147" s="23"/>
       <c r="E147" s="34"/>
       <c r="F147" s="34"/>
       <c r="J147" s="23"/>
-    </row>
-    <row r="148" spans="2:10" ht="15.75">
+      <c r="K147" s="23"/>
+    </row>
+    <row r="148" spans="2:11" ht="15.75">
       <c r="B148" s="22"/>
       <c r="C148" s="22"/>
       <c r="D148" s="23"/>
       <c r="E148" s="34"/>
       <c r="F148" s="34"/>
       <c r="J148" s="23"/>
-    </row>
-    <row r="149" spans="2:10" ht="15.75">
+      <c r="K148" s="23"/>
+    </row>
+    <row r="149" spans="2:11" ht="15.75">
       <c r="B149" s="22"/>
       <c r="C149" s="22"/>
       <c r="D149" s="23"/>
       <c r="E149" s="34"/>
       <c r="F149" s="34"/>
       <c r="J149" s="23"/>
-    </row>
-    <row r="150" spans="2:10" ht="15.75">
+      <c r="K149" s="23"/>
+    </row>
+    <row r="150" spans="2:11" ht="15.75">
       <c r="B150" s="22"/>
       <c r="C150" s="22"/>
       <c r="D150" s="23"/>
       <c r="E150" s="34"/>
       <c r="F150" s="34"/>
       <c r="J150" s="23"/>
-    </row>
-    <row r="151" spans="2:10" ht="15.75">
+      <c r="K150" s="23"/>
+    </row>
+    <row r="151" spans="2:11" ht="15.75">
       <c r="B151" s="22"/>
       <c r="C151" s="22"/>
       <c r="D151" s="23"/>
       <c r="E151" s="34"/>
       <c r="F151" s="34"/>
       <c r="J151" s="23"/>
-    </row>
-    <row r="152" spans="2:10" ht="15.75">
+      <c r="K151" s="23"/>
+    </row>
+    <row r="152" spans="2:11" ht="15.75">
       <c r="B152" s="22"/>
       <c r="C152" s="22"/>
       <c r="D152" s="23"/>
       <c r="E152" s="34"/>
       <c r="F152" s="34"/>
       <c r="J152" s="23"/>
-    </row>
-    <row r="153" spans="2:10" ht="15.75">
+      <c r="K152" s="23"/>
+    </row>
+    <row r="153" spans="2:11" ht="15.75">
       <c r="B153" s="22"/>
       <c r="C153" s="22"/>
       <c r="D153" s="23"/>
       <c r="E153" s="34"/>
       <c r="F153" s="34"/>
       <c r="J153" s="23"/>
-    </row>
-    <row r="154" spans="2:10" ht="15.75">
+      <c r="K153" s="23"/>
+    </row>
+    <row r="154" spans="2:11" ht="15.75">
       <c r="B154" s="22"/>
       <c r="C154" s="22"/>
       <c r="D154" s="23"/>
       <c r="E154" s="34"/>
       <c r="F154" s="34"/>
       <c r="J154" s="23"/>
-    </row>
-    <row r="155" spans="2:10" ht="15.75">
+      <c r="K154" s="23"/>
+    </row>
+    <row r="155" spans="2:11" ht="15.75">
       <c r="B155" s="22"/>
       <c r="C155" s="22"/>
       <c r="D155" s="23"/>
       <c r="E155" s="34"/>
       <c r="F155" s="34"/>
       <c r="J155" s="23"/>
-    </row>
-    <row r="156" spans="2:10" ht="15.75">
+      <c r="K155" s="23"/>
+    </row>
+    <row r="156" spans="2:11" ht="15.75">
       <c r="B156" s="22"/>
       <c r="C156" s="22"/>
       <c r="D156" s="23"/>
       <c r="E156" s="34"/>
       <c r="F156" s="34"/>
       <c r="J156" s="23"/>
-    </row>
-    <row r="157" spans="2:10" ht="15.75">
+      <c r="K156" s="23"/>
+    </row>
+    <row r="157" spans="2:11" ht="15.75">
       <c r="B157" s="22"/>
       <c r="C157" s="22"/>
       <c r="D157" s="23"/>
       <c r="E157" s="34"/>
       <c r="F157" s="34"/>
       <c r="J157" s="23"/>
-    </row>
-    <row r="158" spans="2:10" ht="15.75">
+      <c r="K157" s="23"/>
+    </row>
+    <row r="158" spans="2:11" ht="15.75">
       <c r="B158" s="22"/>
       <c r="C158" s="22"/>
       <c r="D158" s="23"/>
       <c r="E158" s="34"/>
       <c r="F158" s="34"/>
       <c r="J158" s="23"/>
-    </row>
-    <row r="159" spans="2:10" ht="15.75">
+      <c r="K158" s="23"/>
+    </row>
+    <row r="159" spans="2:11" ht="15.75">
       <c r="B159" s="22"/>
       <c r="C159" s="22"/>
       <c r="D159" s="23"/>
       <c r="E159" s="34"/>
       <c r="F159" s="34"/>
       <c r="J159" s="23"/>
-    </row>
-    <row r="160" spans="2:10" ht="15.75">
+      <c r="K159" s="23"/>
+    </row>
+    <row r="160" spans="2:11" ht="15.75">
       <c r="B160" s="22"/>
       <c r="C160" s="22"/>
       <c r="D160" s="23"/>
       <c r="E160" s="34"/>
       <c r="F160" s="34"/>
       <c r="J160" s="23"/>
-    </row>
-    <row r="161" spans="2:10" ht="15.75">
+      <c r="K160" s="23"/>
+    </row>
+    <row r="161" spans="2:11" ht="15.75">
       <c r="B161" s="22"/>
       <c r="C161" s="22"/>
       <c r="D161" s="23"/>
       <c r="E161" s="34"/>
       <c r="F161" s="34"/>
       <c r="J161" s="23"/>
-    </row>
-    <row r="162" spans="2:10" ht="15.75">
+      <c r="K161" s="23"/>
+    </row>
+    <row r="162" spans="2:11" ht="15.75">
       <c r="B162" s="22"/>
       <c r="C162" s="22"/>
       <c r="D162" s="23"/>
       <c r="E162" s="34"/>
       <c r="F162" s="34"/>
       <c r="J162" s="23"/>
-    </row>
-    <row r="163" spans="2:10" ht="15.75">
+      <c r="K162" s="23"/>
+    </row>
+    <row r="163" spans="2:11" ht="15.75">
       <c r="B163" s="22"/>
       <c r="C163" s="22"/>
       <c r="D163" s="23"/>
       <c r="E163" s="34"/>
       <c r="F163" s="34"/>
       <c r="J163" s="23"/>
-    </row>
-    <row r="164" spans="2:10" ht="15.75">
+      <c r="K163" s="23"/>
+    </row>
+    <row r="164" spans="2:11" ht="15.75">
       <c r="B164" s="22"/>
       <c r="C164" s="22"/>
       <c r="D164" s="23"/>
       <c r="E164" s="34"/>
       <c r="F164" s="34"/>
       <c r="J164" s="23"/>
-    </row>
-    <row r="165" spans="2:10" ht="15.75">
+      <c r="K164" s="23"/>
+    </row>
+    <row r="165" spans="2:11" ht="15.75">
       <c r="B165" s="22"/>
       <c r="C165" s="22"/>
       <c r="D165" s="23"/>
       <c r="E165" s="34"/>
       <c r="F165" s="34"/>
       <c r="J165" s="23"/>
-    </row>
-    <row r="166" spans="2:10" ht="15.75">
+      <c r="K165" s="23"/>
+    </row>
+    <row r="166" spans="2:11" ht="15.75">
       <c r="B166" s="22"/>
       <c r="C166" s="22"/>
       <c r="D166" s="23"/>
       <c r="E166" s="34"/>
       <c r="F166" s="34"/>
       <c r="J166" s="23"/>
-    </row>
-    <row r="167" spans="2:10" ht="15.75">
+      <c r="K166" s="23"/>
+    </row>
+    <row r="167" spans="2:11" ht="15.75">
       <c r="B167" s="22"/>
       <c r="C167" s="22"/>
       <c r="D167" s="23"/>
       <c r="E167" s="34"/>
       <c r="F167" s="34"/>
       <c r="J167" s="23"/>
-    </row>
-    <row r="168" spans="2:10" ht="15.75">
+      <c r="K167" s="23"/>
+    </row>
+    <row r="168" spans="2:11" ht="15.75">
       <c r="B168" s="22"/>
       <c r="C168" s="22"/>
       <c r="D168" s="23"/>
       <c r="E168" s="34"/>
       <c r="F168" s="34"/>
       <c r="J168" s="23"/>
-    </row>
-    <row r="169" spans="2:10" ht="15.75">
+      <c r="K168" s="23"/>
+    </row>
+    <row r="169" spans="2:11" ht="15.75">
       <c r="B169" s="22"/>
       <c r="C169" s="22"/>
       <c r="D169" s="23"/>
       <c r="E169" s="34"/>
       <c r="F169" s="34"/>
       <c r="J169" s="23"/>
-    </row>
-    <row r="170" spans="2:10" ht="15.75">
+      <c r="K169" s="23"/>
+    </row>
+    <row r="170" spans="2:11" ht="15.75">
       <c r="B170" s="22"/>
       <c r="C170" s="22"/>
       <c r="D170" s="23"/>
       <c r="E170" s="34"/>
       <c r="F170" s="34"/>
       <c r="J170" s="23"/>
-    </row>
-    <row r="171" spans="2:10" ht="15.75">
+      <c r="K170" s="23"/>
+    </row>
+    <row r="171" spans="2:11" ht="15.75">
       <c r="B171" s="22"/>
       <c r="C171" s="22"/>
       <c r="D171" s="23"/>
       <c r="E171" s="34"/>
       <c r="F171" s="34"/>
       <c r="J171" s="23"/>
-    </row>
-    <row r="172" spans="2:10" ht="15.75">
+      <c r="K171" s="23"/>
+    </row>
+    <row r="172" spans="2:11" ht="15.75">
       <c r="B172" s="22"/>
       <c r="C172" s="22"/>
       <c r="D172" s="23"/>
       <c r="E172" s="34"/>
       <c r="F172" s="34"/>
       <c r="J172" s="23"/>
-    </row>
-    <row r="173" spans="2:10" ht="15.75">
+      <c r="K172" s="23"/>
+    </row>
+    <row r="173" spans="2:11" ht="15.75">
       <c r="B173" s="22"/>
       <c r="C173" s="22"/>
       <c r="D173" s="23"/>
       <c r="E173" s="34"/>
       <c r="F173" s="34"/>
       <c r="J173" s="23"/>
-    </row>
-    <row r="174" spans="2:10" ht="15.75">
+      <c r="K173" s="23"/>
+    </row>
+    <row r="174" spans="2:11" ht="15.75">
       <c r="B174" s="22"/>
       <c r="C174" s="22"/>
       <c r="D174" s="23"/>
       <c r="E174" s="34"/>
       <c r="F174" s="34"/>
       <c r="J174" s="23"/>
-    </row>
-    <row r="175" spans="2:10" ht="15.75">
+      <c r="K174" s="23"/>
+    </row>
+    <row r="175" spans="2:11" ht="15.75">
       <c r="B175" s="22"/>
       <c r="C175" s="22"/>
       <c r="D175" s="23"/>
       <c r="E175" s="34"/>
       <c r="F175" s="34"/>
       <c r="J175" s="23"/>
-    </row>
-    <row r="176" spans="2:10" ht="15.75">
+      <c r="K175" s="23"/>
+    </row>
+    <row r="176" spans="2:11" ht="15.75">
       <c r="B176" s="22"/>
       <c r="C176" s="22"/>
       <c r="D176" s="23"/>
       <c r="E176" s="34"/>
       <c r="F176" s="34"/>
       <c r="J176" s="23"/>
-    </row>
-    <row r="177" spans="2:10" ht="15.75">
+      <c r="K176" s="23"/>
+    </row>
+    <row r="177" spans="2:11" ht="15.75">
       <c r="B177" s="22"/>
       <c r="C177" s="22"/>
       <c r="D177" s="23"/>
       <c r="E177" s="34"/>
       <c r="F177" s="34"/>
       <c r="J177" s="23"/>
-    </row>
-    <row r="178" spans="2:10" ht="15.75">
+      <c r="K177" s="23"/>
+    </row>
+    <row r="178" spans="2:11" ht="15.75">
       <c r="B178" s="22"/>
       <c r="C178" s="22"/>
       <c r="D178" s="23"/>
       <c r="E178" s="34"/>
       <c r="F178" s="34"/>
       <c r="J178" s="23"/>
-    </row>
-    <row r="179" spans="2:10" ht="15.75">
+      <c r="K178" s="23"/>
+    </row>
+    <row r="179" spans="2:11" ht="15.75">
       <c r="B179" s="22"/>
       <c r="C179" s="22"/>
       <c r="D179" s="23"/>
       <c r="E179" s="34"/>
       <c r="F179" s="34"/>
       <c r="J179" s="23"/>
-    </row>
-    <row r="180" spans="2:10" ht="15.75">
+      <c r="K179" s="23"/>
+    </row>
+    <row r="180" spans="2:11" ht="15.75">
       <c r="B180" s="22"/>
       <c r="C180" s="22"/>
       <c r="D180" s="23"/>
       <c r="E180" s="34"/>
       <c r="F180" s="34"/>
       <c r="J180" s="23"/>
-    </row>
-    <row r="181" spans="2:10" ht="15.75">
+      <c r="K180" s="23"/>
+    </row>
+    <row r="181" spans="2:11" ht="15.75">
       <c r="B181" s="22"/>
       <c r="C181" s="22"/>
       <c r="D181" s="23"/>
       <c r="E181" s="34"/>
       <c r="F181" s="34"/>
       <c r="J181" s="23"/>
-    </row>
-    <row r="182" spans="2:10" ht="15.75">
+      <c r="K181" s="23"/>
+    </row>
+    <row r="182" spans="2:11" ht="15.75">
       <c r="B182" s="22"/>
       <c r="C182" s="22"/>
       <c r="D182" s="23"/>
       <c r="E182" s="34"/>
       <c r="F182" s="34"/>
       <c r="J182" s="23"/>
-    </row>
-    <row r="183" spans="2:10" ht="15.75">
+      <c r="K182" s="23"/>
+    </row>
+    <row r="183" spans="2:11" ht="15.75">
       <c r="B183" s="22"/>
       <c r="C183" s="22"/>
       <c r="D183" s="23"/>
       <c r="E183" s="34"/>
       <c r="F183" s="34"/>
       <c r="J183" s="23"/>
-    </row>
-    <row r="184" spans="2:10" ht="15.75">
+      <c r="K183" s="23"/>
+    </row>
+    <row r="184" spans="2:11" ht="15.75">
       <c r="B184" s="22"/>
       <c r="C184" s="22"/>
       <c r="D184" s="23"/>
       <c r="E184" s="34"/>
       <c r="F184" s="34"/>
       <c r="J184" s="23"/>
-    </row>
-    <row r="185" spans="2:10" ht="15.75">
+      <c r="K184" s="23"/>
+    </row>
+    <row r="185" spans="2:11" ht="15.75">
       <c r="B185" s="22"/>
       <c r="C185" s="22"/>
       <c r="D185" s="23"/>
       <c r="E185" s="34"/>
       <c r="F185" s="34"/>
       <c r="J185" s="23"/>
-    </row>
-    <row r="186" spans="2:10" ht="15.75">
+      <c r="K185" s="23"/>
+    </row>
+    <row r="186" spans="2:11" ht="15.75">
       <c r="B186" s="22"/>
       <c r="C186" s="22"/>
       <c r="D186" s="23"/>
       <c r="E186" s="34"/>
       <c r="F186" s="34"/>
       <c r="J186" s="23"/>
-    </row>
-    <row r="187" spans="2:10" ht="15.75">
+      <c r="K186" s="23"/>
+    </row>
+    <row r="187" spans="2:11" ht="15.75">
       <c r="B187" s="22"/>
       <c r="C187" s="22"/>
       <c r="D187" s="23"/>
       <c r="E187" s="34"/>
       <c r="F187" s="34"/>
       <c r="J187" s="23"/>
-    </row>
-    <row r="188" spans="2:10" ht="15.75">
+      <c r="K187" s="23"/>
+    </row>
+    <row r="188" spans="2:11" ht="15.75">
       <c r="B188" s="22"/>
       <c r="C188" s="22"/>
       <c r="D188" s="23"/>
       <c r="E188" s="34"/>
       <c r="F188" s="34"/>
       <c r="J188" s="23"/>
-    </row>
-    <row r="189" spans="2:10" ht="15.75">
+      <c r="K188" s="23"/>
+    </row>
+    <row r="189" spans="2:11" ht="15.75">
       <c r="B189" s="22"/>
       <c r="C189" s="22"/>
       <c r="D189" s="23"/>
       <c r="E189" s="34"/>
       <c r="F189" s="34"/>
       <c r="J189" s="23"/>
-    </row>
-    <row r="190" spans="2:10" ht="15.75">
+      <c r="K189" s="23"/>
+    </row>
+    <row r="190" spans="2:11" ht="15.75">
       <c r="B190" s="22"/>
       <c r="C190" s="22"/>
       <c r="D190" s="23"/>
       <c r="E190" s="34"/>
       <c r="F190" s="34"/>
       <c r="J190" s="23"/>
-    </row>
-    <row r="191" spans="2:10" ht="15.75">
+      <c r="K190" s="23"/>
+    </row>
+    <row r="191" spans="2:11" ht="15.75">
       <c r="B191" s="22"/>
       <c r="C191" s="22"/>
       <c r="D191" s="23"/>
       <c r="E191" s="34"/>
       <c r="F191" s="34"/>
       <c r="J191" s="23"/>
-    </row>
-    <row r="192" spans="2:10" ht="15.75">
+      <c r="K191" s="23"/>
+    </row>
+    <row r="192" spans="2:11" ht="15.75">
       <c r="B192" s="22"/>
       <c r="C192" s="22"/>
       <c r="D192" s="23"/>
       <c r="E192" s="34"/>
       <c r="F192" s="34"/>
       <c r="J192" s="23"/>
-    </row>
-    <row r="193" spans="2:10" ht="15.75">
+      <c r="K192" s="23"/>
+    </row>
+    <row r="193" spans="2:11" ht="15.75">
       <c r="B193" s="22"/>
       <c r="C193" s="22"/>
       <c r="D193" s="23"/>
       <c r="E193" s="34"/>
       <c r="F193" s="34"/>
       <c r="J193" s="23"/>
-    </row>
-    <row r="194" spans="2:10" ht="15.75">
+      <c r="K193" s="23"/>
+    </row>
+    <row r="194" spans="2:11" ht="15.75">
       <c r="B194" s="22"/>
       <c r="C194" s="22"/>
       <c r="D194" s="23"/>
       <c r="E194" s="34"/>
       <c r="F194" s="34"/>
       <c r="J194" s="23"/>
-    </row>
-    <row r="195" spans="2:10" ht="15.75">
+      <c r="K194" s="23"/>
+    </row>
+    <row r="195" spans="2:11" ht="15.75">
       <c r="B195" s="22"/>
       <c r="C195" s="22"/>
       <c r="D195" s="23"/>
       <c r="E195" s="34"/>
       <c r="F195" s="34"/>
       <c r="J195" s="23"/>
-    </row>
-    <row r="196" spans="2:10" ht="15.75">
+      <c r="K195" s="23"/>
+    </row>
+    <row r="196" spans="2:11" ht="15.75">
       <c r="B196" s="22"/>
       <c r="C196" s="22"/>
       <c r="D196" s="23"/>
       <c r="E196" s="34"/>
       <c r="F196" s="34"/>
       <c r="J196" s="23"/>
-    </row>
-    <row r="197" spans="2:10" ht="15.75">
+      <c r="K196" s="23"/>
+    </row>
+    <row r="197" spans="2:11" ht="15.75">
       <c r="B197" s="22"/>
       <c r="C197" s="22"/>
       <c r="D197" s="23"/>
       <c r="E197" s="34"/>
       <c r="F197" s="34"/>
       <c r="J197" s="23"/>
-    </row>
-    <row r="198" spans="2:10" ht="15.75">
+      <c r="K197" s="23"/>
+    </row>
+    <row r="198" spans="2:11" ht="15.75">
       <c r="B198" s="22"/>
       <c r="C198" s="22"/>
       <c r="D198" s="23"/>
       <c r="E198" s="34"/>
       <c r="F198" s="34"/>
       <c r="J198" s="23"/>
-    </row>
-    <row r="199" spans="2:10" ht="15.75">
+      <c r="K198" s="23"/>
+    </row>
+    <row r="199" spans="2:11" ht="15.75">
       <c r="B199" s="22"/>
       <c r="C199" s="22"/>
       <c r="D199" s="23"/>
       <c r="E199" s="34"/>
       <c r="F199" s="34"/>
       <c r="J199" s="23"/>
-    </row>
-    <row r="200" spans="2:10" ht="15.75">
+      <c r="K199" s="23"/>
+    </row>
+    <row r="200" spans="2:11" ht="15.75">
       <c r="B200" s="22"/>
       <c r="C200" s="22"/>
       <c r="D200" s="23"/>
@@ -5993,49 +7205,49 @@
       <c r="F200" s="34"/>
       <c r="J200" s="23"/>
     </row>
-    <row r="201" spans="2:10">
+    <row r="201" spans="2:11">
       <c r="B201" s="22"/>
       <c r="C201" s="22"/>
       <c r="D201" s="23"/>
       <c r="J201" s="23"/>
     </row>
-    <row r="202" spans="2:10">
+    <row r="202" spans="2:11">
       <c r="B202" s="22"/>
       <c r="C202" s="22"/>
       <c r="D202" s="23"/>
       <c r="J202" s="23"/>
     </row>
-    <row r="203" spans="2:10">
+    <row r="203" spans="2:11">
       <c r="B203" s="22"/>
       <c r="C203" s="22"/>
       <c r="D203" s="23"/>
       <c r="J203" s="23"/>
     </row>
-    <row r="204" spans="2:10">
+    <row r="204" spans="2:11">
       <c r="B204" s="22"/>
       <c r="C204" s="22"/>
       <c r="D204" s="23"/>
       <c r="J204" s="23"/>
     </row>
-    <row r="205" spans="2:10">
+    <row r="205" spans="2:11">
       <c r="B205" s="22"/>
       <c r="C205" s="22"/>
       <c r="D205" s="23"/>
       <c r="J205" s="23"/>
     </row>
-    <row r="206" spans="2:10">
+    <row r="206" spans="2:11">
       <c r="B206" s="22"/>
       <c r="C206" s="22"/>
       <c r="D206" s="23"/>
       <c r="J206" s="23"/>
     </row>
-    <row r="207" spans="2:10">
+    <row r="207" spans="2:11">
       <c r="B207" s="22"/>
       <c r="C207" s="22"/>
       <c r="D207" s="23"/>
       <c r="J207" s="23"/>
     </row>
-    <row r="208" spans="2:10">
+    <row r="208" spans="2:11">
       <c r="B208" s="22"/>
       <c r="C208" s="22"/>
       <c r="D208" s="23"/>
@@ -6600,16 +7812,23 @@
       <c r="J301" s="23"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{18CF88FC-F1C8-4C78-94BE-3D1EB73A18F2}"/>
   <conditionalFormatting sqref="D112:D1048576 D41:D72 D1:D38 D74:D98 D100:D110">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41:J72 J1:J38 J112:J1048576 J74:J110">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J73">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J41:J72 J1:J38 J112:J1048576 J74:J110">
+  <conditionalFormatting sqref="D111">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J73">
+  <conditionalFormatting sqref="J111">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6629,13 +7848,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="B1" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="C1" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6646,7 +7865,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6657,18 +7876,18 @@
         <v>1</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="37" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6679,7 +7898,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6690,7 +7909,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6701,7 +7920,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6712,7 +7931,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6723,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6734,7 +7953,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6745,7 +7964,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6756,7 +7975,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6767,7 +7986,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6778,7 +7997,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6789,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6800,7 +8019,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6811,7 +8030,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6822,7 +8041,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6833,18 +8052,18 @@
         <v>1</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="37" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6855,7 +8074,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6866,7 +8085,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6877,7 +8096,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
